--- a/safe-box-doc/接口-v4.0.xlsx
+++ b/safe-box-doc/接口-v4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8970" activeTab="6"/>
+    <workbookView windowWidth="19455" windowHeight="8985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
   <si>
     <t>功能</t>
   </si>
@@ -58,6 +58,37 @@
     <t>√</t>
   </si>
   <si>
+    <t>登出</t>
+  </si>
+  <si>
+    <t>接口0-uniform/logout</t>
+  </si>
+  <si>
+    <t>employeeId(银行职员ID)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20170417</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增</t>
+    </r>
+  </si>
+  <si>
     <t>新增</t>
   </si>
   <si>
@@ -261,6 +292,9 @@
     <t>actualRent 租金</t>
   </si>
   <si>
+    <t>operator 操作人</t>
+  </si>
+  <si>
     <t>endDate到期日</t>
   </si>
   <si>
@@ -273,6 +307,9 @@
     <t>租赁信息列表（列表）</t>
   </si>
   <si>
+    <t>accountId 账户id(20170418增加)</t>
+  </si>
+  <si>
     <t>bankId(网点)</t>
   </si>
   <si>
@@ -283,6 +320,10 @@
   </si>
   <si>
     <t>leaseNo 租约编号</t>
+  </si>
+  <si>
+    <t>customerSum(账户关联的客户数目,
+新建账户为账户总客户数，老账户为新增客户数)</t>
   </si>
   <si>
     <t>leaseRemark 租约备注</t>
@@ -375,6 +416,9 @@
     <t>photo照片</t>
   </si>
   <si>
+    <t>operator 操作人（20170416添加）</t>
+  </si>
+  <si>
     <t>Card信息</t>
   </si>
   <si>
@@ -512,6 +556,10 @@
     <t>unrecycleKeySum 未回收钥匙数</t>
   </si>
   <si>
+    <t>isCardDestroy Card 是否被销毁(0-是，1-否) 
+(20170418 新增)</t>
+  </si>
+  <si>
     <t>keyFee 钥匙费用</t>
   </si>
   <si>
@@ -542,6 +590,9 @@
   </si>
   <si>
     <t>openAccountDate 开户日期</t>
+  </si>
+  <si>
+    <t>unitName单位名称（20170418修改）</t>
   </si>
   <si>
     <t>接口11-modify/setCustomerData</t>
@@ -1050,12 +1101,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1188,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1145,6 +1203,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,29 +1262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1224,6 +1282,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1256,30 +1338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1298,8 +1356,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1320,19 +1385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,19 +1415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,7 +1451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,37 +1463,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1499,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,19 +1541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,25 +1565,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,6 +2045,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1991,26 +2088,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2019,10 +2096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2031,137 +2108,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2408,6 +2485,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2465,6 +2548,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2543,6 +2632,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2552,25 +2644,31 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2943,10 +3041,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2977,7 +3075,7 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="136" t="s">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2990,90 +3088,88 @@
       <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="139" t="s">
+      <c r="D3" s="110"/>
+      <c r="E3" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
       <c r="H3" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:8">
-      <c r="A4" s="137"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="143"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="150"/>
       <c r="G4" s="12"/>
       <c r="H4" s="36"/>
     </row>
+    <row r="6" ht="14.25"/>
     <row r="7" spans="1:8">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="122" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="147"/>
+      <c r="G7" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="14"/>
       <c r="H7" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="58"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="66" t="s">
+    <row r="8" ht="14.25" spans="1:8">
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" ht="14.25"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="58"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="66" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="58"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="66" t="s">
+      <c r="C10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="35"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="33" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="58"/>
@@ -3081,7 +3177,7 @@
       <c r="C11" s="66"/>
       <c r="D11" s="67"/>
       <c r="E11" s="66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="67"/>
       <c r="G11" s="17"/>
@@ -3093,7 +3189,7 @@
       <c r="C12" s="66"/>
       <c r="D12" s="67"/>
       <c r="E12" s="66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="67"/>
       <c r="G12" s="17"/>
@@ -3105,7 +3201,7 @@
       <c r="C13" s="66"/>
       <c r="D13" s="67"/>
       <c r="E13" s="66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="67"/>
       <c r="G13" s="17"/>
@@ -3117,7 +3213,7 @@
       <c r="C14" s="66"/>
       <c r="D14" s="67"/>
       <c r="E14" s="66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="67"/>
       <c r="G14" s="17"/>
@@ -3129,7 +3225,7 @@
       <c r="C15" s="66"/>
       <c r="D15" s="67"/>
       <c r="E15" s="66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="17"/>
@@ -3141,7 +3237,7 @@
       <c r="C16" s="66"/>
       <c r="D16" s="67"/>
       <c r="E16" s="66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="67"/>
       <c r="G16" s="17"/>
@@ -3153,7 +3249,7 @@
       <c r="C17" s="66"/>
       <c r="D17" s="67"/>
       <c r="E17" s="66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="67"/>
       <c r="G17" s="17"/>
@@ -3165,7 +3261,7 @@
       <c r="C18" s="66"/>
       <c r="D18" s="67"/>
       <c r="E18" s="66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="17"/>
@@ -3177,7 +3273,7 @@
       <c r="C19" s="66"/>
       <c r="D19" s="67"/>
       <c r="E19" s="66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="17"/>
@@ -3189,7 +3285,7 @@
       <c r="C20" s="66"/>
       <c r="D20" s="67"/>
       <c r="E20" s="66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="67"/>
       <c r="G20" s="17"/>
@@ -3201,7 +3297,7 @@
       <c r="C21" s="66"/>
       <c r="D21" s="67"/>
       <c r="E21" s="66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="67"/>
       <c r="G21" s="17"/>
@@ -3212,10 +3308,10 @@
       <c r="B22" s="23"/>
       <c r="C22" s="66"/>
       <c r="D22" s="67"/>
-      <c r="E22" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="26"/>
+      <c r="E22" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="67"/>
       <c r="G22" s="17"/>
       <c r="H22" s="35"/>
     </row>
@@ -3225,7 +3321,7 @@
       <c r="C23" s="66"/>
       <c r="D23" s="67"/>
       <c r="E23" s="66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="67"/>
       <c r="G23" s="17"/>
@@ -3237,7 +3333,7 @@
       <c r="C24" s="66"/>
       <c r="D24" s="67"/>
       <c r="E24" s="66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="17"/>
@@ -3248,10 +3344,10 @@
       <c r="B25" s="23"/>
       <c r="C25" s="66"/>
       <c r="D25" s="67"/>
-      <c r="E25" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="67"/>
+      <c r="E25" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="26"/>
       <c r="G25" s="17"/>
       <c r="H25" s="35"/>
     </row>
@@ -3261,7 +3357,7 @@
       <c r="C26" s="66"/>
       <c r="D26" s="67"/>
       <c r="E26" s="66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" s="67"/>
       <c r="G26" s="17"/>
@@ -3273,7 +3369,7 @@
       <c r="C27" s="66"/>
       <c r="D27" s="67"/>
       <c r="E27" s="66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="67"/>
       <c r="G27" s="17"/>
@@ -3285,7 +3381,7 @@
       <c r="C28" s="66"/>
       <c r="D28" s="67"/>
       <c r="E28" s="66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" s="67"/>
       <c r="G28" s="17"/>
@@ -3297,7 +3393,7 @@
       <c r="C29" s="66"/>
       <c r="D29" s="67"/>
       <c r="E29" s="66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" s="67"/>
       <c r="G29" s="17"/>
@@ -3309,7 +3405,7 @@
       <c r="C30" s="66"/>
       <c r="D30" s="67"/>
       <c r="E30" s="66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="17"/>
@@ -3321,7 +3417,7 @@
       <c r="C31" s="66"/>
       <c r="D31" s="67"/>
       <c r="E31" s="66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" s="67"/>
       <c r="G31" s="17"/>
@@ -3333,7 +3429,7 @@
       <c r="C32" s="66"/>
       <c r="D32" s="67"/>
       <c r="E32" s="66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" s="67"/>
       <c r="G32" s="17"/>
@@ -3345,7 +3441,7 @@
       <c r="C33" s="66"/>
       <c r="D33" s="67"/>
       <c r="E33" s="66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F33" s="67"/>
       <c r="G33" s="17"/>
@@ -3357,7 +3453,7 @@
       <c r="C34" s="66"/>
       <c r="D34" s="67"/>
       <c r="E34" s="66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34" s="67"/>
       <c r="G34" s="17"/>
@@ -3369,7 +3465,7 @@
       <c r="C35" s="66"/>
       <c r="D35" s="67"/>
       <c r="E35" s="66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" s="67"/>
       <c r="G35" s="17"/>
@@ -3381,7 +3477,7 @@
       <c r="C36" s="66"/>
       <c r="D36" s="67"/>
       <c r="E36" s="66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" s="67"/>
       <c r="G36" s="17"/>
@@ -3392,10 +3488,10 @@
       <c r="B37" s="23"/>
       <c r="C37" s="66"/>
       <c r="D37" s="67"/>
-      <c r="E37" s="130" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="26"/>
+      <c r="E37" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="67"/>
       <c r="G37" s="17"/>
       <c r="H37" s="35"/>
     </row>
@@ -3405,7 +3501,7 @@
       <c r="C38" s="66"/>
       <c r="D38" s="67"/>
       <c r="E38" s="66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="67"/>
       <c r="G38" s="17"/>
@@ -3417,7 +3513,7 @@
       <c r="C39" s="66"/>
       <c r="D39" s="67"/>
       <c r="E39" s="66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" s="67"/>
       <c r="G39" s="17"/>
@@ -3428,10 +3524,10 @@
       <c r="B40" s="23"/>
       <c r="C40" s="66"/>
       <c r="D40" s="67"/>
-      <c r="E40" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="67"/>
+      <c r="E40" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="26"/>
       <c r="G40" s="17"/>
       <c r="H40" s="35"/>
     </row>
@@ -3441,7 +3537,7 @@
       <c r="C41" s="66"/>
       <c r="D41" s="67"/>
       <c r="E41" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="67"/>
       <c r="G41" s="17"/>
@@ -3453,7 +3549,7 @@
       <c r="C42" s="66"/>
       <c r="D42" s="67"/>
       <c r="E42" s="66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" s="67"/>
       <c r="G42" s="17"/>
@@ -3465,7 +3561,7 @@
       <c r="C43" s="66"/>
       <c r="D43" s="67"/>
       <c r="E43" s="66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="67"/>
       <c r="G43" s="17"/>
@@ -3477,7 +3573,7 @@
       <c r="C44" s="66"/>
       <c r="D44" s="67"/>
       <c r="E44" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F44" s="67"/>
       <c r="G44" s="17"/>
@@ -3489,7 +3585,7 @@
       <c r="C45" s="66"/>
       <c r="D45" s="67"/>
       <c r="E45" s="66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" s="67"/>
       <c r="G45" s="17"/>
@@ -3501,32 +3597,65 @@
       <c r="C46" s="66"/>
       <c r="D46" s="67"/>
       <c r="E46" s="66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="67"/>
       <c r="G46" s="17"/>
       <c r="H46" s="35"/>
     </row>
-    <row r="47" ht="14.25" spans="1:8">
-      <c r="A47" s="73"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="36"/>
+    <row r="47" spans="1:8">
+      <c r="A47" s="58"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="67"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="35"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="58"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="67"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="35"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="58"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="67"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="35"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:8">
+      <c r="A50" s="73"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="51"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="60">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
@@ -3565,16 +3694,25 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A47"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A50"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B7:B47"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B50"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H7:H47"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H10:H50"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:F4"/>
-    <mergeCell ref="C7:D47"/>
+    <mergeCell ref="C10:D50"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3584,17 +3722,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:B94"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="49.875" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="103" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="107" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="20.625" customWidth="1"/>
@@ -3623,7 +3761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="101" customFormat="1" ht="31" customHeight="1" spans="1:7">
+    <row r="2" s="105" customFormat="1" ht="31" customHeight="1" spans="1:7">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -3632,64 +3770,64 @@
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
     </row>
-    <row r="3" s="102" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A3" s="104" t="s">
-        <v>54</v>
+    <row r="3" s="106" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A3" s="108" t="s">
+        <v>58</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="106"/>
+        <v>59</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="110"/>
       <c r="E3" s="48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="111" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="102" customFormat="1" spans="1:8">
-      <c r="A4" s="108"/>
+    <row r="4" s="106" customFormat="1" spans="1:8">
+      <c r="A4" s="112"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="66" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
-      <c r="H4" s="111"/>
-    </row>
-    <row r="5" s="102" customFormat="1" spans="1:8">
-      <c r="A5" s="108"/>
+      <c r="H4" s="115"/>
+    </row>
+    <row r="5" s="106" customFormat="1" spans="1:8">
+      <c r="A5" s="112"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="66" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
-      <c r="H5" s="111"/>
-    </row>
-    <row r="6" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A6" s="108"/>
+      <c r="H5" s="115"/>
+    </row>
+    <row r="6" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A6" s="112"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="50" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="114"/>
-    </row>
-    <row r="7" s="102" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A7" s="108"/>
+      <c r="H6" s="118"/>
+    </row>
+    <row r="7" s="106" customFormat="1" ht="28" customHeight="1" spans="1:7">
+      <c r="A7" s="112"/>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -3697,13 +3835,13 @@
       <c r="F7" s="72"/>
       <c r="G7" s="72"/>
     </row>
-    <row r="8" s="102" customFormat="1" spans="1:8">
-      <c r="A8" s="108"/>
+    <row r="8" s="106" customFormat="1" spans="1:8">
+      <c r="A8" s="112"/>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="48" t="s">
@@ -3715,11 +3853,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" s="102" customFormat="1" spans="1:8">
-      <c r="A9" s="108"/>
+    <row r="9" s="106" customFormat="1" spans="1:8">
+      <c r="A9" s="112"/>
       <c r="B9" s="9"/>
       <c r="C9" s="66" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="66"/>
@@ -3727,11 +3865,11 @@
       <c r="G9" s="67"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A10" s="108"/>
+    <row r="10" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A10" s="112"/>
       <c r="B10" s="11"/>
       <c r="C10" s="50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="50"/>
@@ -3739,8 +3877,8 @@
       <c r="G10" s="51"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" s="102" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A11" s="108"/>
+    <row r="11" s="106" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A11" s="112"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -3748,632 +3886,634 @@
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
     </row>
-    <row r="12" s="102" customFormat="1" spans="1:8">
-      <c r="A12" s="108"/>
+    <row r="12" s="106" customFormat="1" spans="1:8">
+      <c r="A12" s="112"/>
       <c r="B12" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="49"/>
-      <c r="E12" s="115" t="s">
-        <v>63</v>
+      <c r="E12" s="119" t="s">
+        <v>67</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G12" s="25"/>
-      <c r="H12" s="107" t="s">
+      <c r="H12" s="111" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" s="102" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A13" s="108"/>
+    <row r="13" s="106" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A13" s="112"/>
       <c r="B13" s="9"/>
       <c r="C13" s="66"/>
       <c r="D13" s="67"/>
-      <c r="E13" s="116" t="s">
-        <v>65</v>
+      <c r="E13" s="120" t="s">
+        <v>69</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" s="70"/>
-      <c r="H13" s="117"/>
-    </row>
-    <row r="14" s="102" customFormat="1" spans="1:8">
-      <c r="A14" s="108"/>
+      <c r="H13" s="121"/>
+    </row>
+    <row r="14" s="106" customFormat="1" spans="1:8">
+      <c r="A14" s="112"/>
       <c r="B14" s="9"/>
       <c r="C14" s="66"/>
       <c r="D14" s="67"/>
-      <c r="E14" s="118" t="s">
-        <v>67</v>
+      <c r="E14" s="122" t="s">
+        <v>71</v>
       </c>
       <c r="F14" s="81" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G14" s="81"/>
-      <c r="H14" s="117"/>
-    </row>
-    <row r="15" s="102" customFormat="1" spans="1:8">
-      <c r="A15" s="108"/>
+      <c r="H14" s="121"/>
+    </row>
+    <row r="15" s="106" customFormat="1" spans="1:8">
+      <c r="A15" s="112"/>
       <c r="B15" s="9"/>
       <c r="C15" s="66"/>
       <c r="D15" s="67"/>
-      <c r="E15" s="118" t="s">
-        <v>69</v>
+      <c r="E15" s="122" t="s">
+        <v>73</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G15" s="67"/>
-      <c r="H15" s="117"/>
-    </row>
-    <row r="16" s="102" customFormat="1" spans="1:8">
-      <c r="A16" s="108"/>
+      <c r="H15" s="121"/>
+    </row>
+    <row r="16" s="106" customFormat="1" spans="1:8">
+      <c r="A16" s="112"/>
       <c r="B16" s="9"/>
       <c r="C16" s="66"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="118" t="s">
-        <v>71</v>
+      <c r="E16" s="122" t="s">
+        <v>75</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G16" s="67"/>
-      <c r="H16" s="117"/>
-    </row>
-    <row r="17" s="102" customFormat="1" spans="1:8">
-      <c r="A17" s="108"/>
+      <c r="H16" s="121"/>
+    </row>
+    <row r="17" s="106" customFormat="1" spans="1:8">
+      <c r="A17" s="112"/>
       <c r="B17" s="9"/>
       <c r="C17" s="66"/>
       <c r="D17" s="67"/>
-      <c r="E17" s="118" t="s">
-        <v>73</v>
+      <c r="E17" s="122" t="s">
+        <v>77</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G17" s="67"/>
-      <c r="H17" s="117"/>
-    </row>
-    <row r="18" s="102" customFormat="1" spans="1:8">
-      <c r="A18" s="108"/>
+      <c r="H17" s="121"/>
+    </row>
+    <row r="18" s="106" customFormat="1" spans="1:8">
+      <c r="A18" s="112"/>
       <c r="B18" s="9"/>
       <c r="C18" s="66"/>
       <c r="D18" s="67"/>
-      <c r="E18" s="118" t="s">
-        <v>72</v>
+      <c r="E18" s="122" t="s">
+        <v>76</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" s="67"/>
-      <c r="H18" s="117"/>
-    </row>
-    <row r="19" s="102" customFormat="1" spans="1:8">
-      <c r="A19" s="108"/>
+      <c r="H18" s="121"/>
+    </row>
+    <row r="19" s="106" customFormat="1" spans="1:8">
+      <c r="A19" s="112"/>
       <c r="B19" s="9"/>
       <c r="C19" s="66"/>
       <c r="D19" s="67"/>
-      <c r="E19" s="118" t="s">
-        <v>13</v>
+      <c r="E19" s="122" t="s">
+        <v>17</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G19" s="67"/>
-      <c r="H19" s="117"/>
-    </row>
-    <row r="20" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A20" s="108"/>
+      <c r="H19" s="121"/>
+    </row>
+    <row r="20" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A20" s="112"/>
       <c r="B20" s="9"/>
       <c r="C20" s="66"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="118" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="119"/>
-      <c r="H20" s="117"/>
-    </row>
-    <row r="21" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A21" s="108"/>
+      <c r="E20" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="123"/>
+      <c r="H20" s="121"/>
+    </row>
+    <row r="21" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A21" s="112"/>
       <c r="B21" s="9"/>
       <c r="C21" s="66"/>
       <c r="D21" s="67"/>
-      <c r="E21" s="118" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="119"/>
-      <c r="H21" s="117"/>
-    </row>
-    <row r="22" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A22" s="108"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="51"/>
+      <c r="E21" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="123"/>
+      <c r="H21" s="121"/>
+    </row>
+    <row r="22" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A22" s="112"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="123"/>
       <c r="H22" s="121"/>
     </row>
-    <row r="23" s="102" customFormat="1" ht="29" customHeight="1" spans="1:8">
-      <c r="A23" s="108"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-    </row>
-    <row r="24" s="102" customFormat="1" spans="1:8">
-      <c r="A24" s="108"/>
-      <c r="B24" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="123" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="90" t="s">
+    <row r="23" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A23" s="112"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="125"/>
+    </row>
+    <row r="24" s="106" customFormat="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A24" s="112"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" s="106" customFormat="1" spans="1:8">
+      <c r="A25" s="112"/>
+      <c r="B25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="107" t="s">
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="111" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A25" s="108"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="117"/>
-    </row>
-    <row r="26" s="102" customFormat="1" spans="1:8">
-      <c r="A26" s="108"/>
+    <row r="26" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A26" s="112"/>
       <c r="B26" s="9"/>
       <c r="C26" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="93"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="95"/>
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
-      <c r="H26" s="117"/>
-    </row>
-    <row r="27" s="102" customFormat="1" spans="1:8">
-      <c r="A27" s="108"/>
+      <c r="H26" s="121"/>
+    </row>
+    <row r="27" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A27" s="112"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="93"/>
+      <c r="C27" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="128"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="67"/>
       <c r="G27" s="67"/>
-      <c r="H27" s="117"/>
-    </row>
-    <row r="28" s="102" customFormat="1" spans="1:8">
-      <c r="A28" s="108"/>
+      <c r="H27" s="121"/>
+    </row>
+    <row r="28" s="106" customFormat="1" spans="1:8">
+      <c r="A28" s="112"/>
       <c r="B28" s="9"/>
       <c r="C28" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="93"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="67"/>
       <c r="G28" s="67"/>
-      <c r="H28" s="117"/>
-    </row>
-    <row r="29" s="102" customFormat="1" spans="1:8">
-      <c r="A29" s="108"/>
+      <c r="H28" s="121"/>
+    </row>
+    <row r="29" s="106" customFormat="1" spans="1:8">
+      <c r="A29" s="112"/>
       <c r="B29" s="9"/>
       <c r="C29" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="93"/>
+        <v>53</v>
+      </c>
+      <c r="D29" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="95"/>
       <c r="F29" s="67"/>
       <c r="G29" s="67"/>
-      <c r="H29" s="117"/>
-    </row>
-    <row r="30" s="102" customFormat="1" spans="1:8">
-      <c r="A30" s="108"/>
+      <c r="H29" s="121"/>
+    </row>
+    <row r="30" s="106" customFormat="1" spans="1:8">
+      <c r="A30" s="112"/>
       <c r="B30" s="9"/>
       <c r="C30" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="93"/>
+        <v>54</v>
+      </c>
+      <c r="D30" s="130" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="95"/>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
-      <c r="H30" s="117"/>
-    </row>
-    <row r="31" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A31" s="108"/>
+      <c r="H30" s="121"/>
+    </row>
+    <row r="31" s="106" customFormat="1" spans="1:8">
+      <c r="A31" s="112"/>
       <c r="B31" s="9"/>
       <c r="C31" s="66" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="93"/>
+        <v>17</v>
+      </c>
+      <c r="E31" s="95"/>
       <c r="F31" s="67"/>
       <c r="G31" s="67"/>
-      <c r="H31" s="117"/>
-    </row>
-    <row r="32" s="102" customFormat="1" spans="1:8">
-      <c r="A32" s="108"/>
+      <c r="H31" s="121"/>
+    </row>
+    <row r="32" s="106" customFormat="1" spans="1:8">
+      <c r="A32" s="112"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="122" t="s">
-        <v>63</v>
+      <c r="C32" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="93"/>
+        <v>91</v>
+      </c>
+      <c r="E32" s="95"/>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
-      <c r="H32" s="117"/>
-    </row>
-    <row r="33" s="102" customFormat="1" spans="1:8">
-      <c r="A33" s="108"/>
+      <c r="H32" s="121"/>
+    </row>
+    <row r="33" s="106" customFormat="1" ht="27.75" spans="1:8">
+      <c r="A33" s="112"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="127" t="s">
-        <v>88</v>
+      <c r="C33" s="131" t="s">
+        <v>92</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="93"/>
+        <v>93</v>
+      </c>
+      <c r="E33" s="95"/>
       <c r="F33" s="67"/>
       <c r="G33" s="67"/>
-      <c r="H33" s="117"/>
-    </row>
-    <row r="34" s="102" customFormat="1" ht="27" spans="1:8">
-      <c r="A34" s="108"/>
+      <c r="H33" s="121"/>
+    </row>
+    <row r="34" s="106" customFormat="1" spans="1:8">
+      <c r="A34" s="112"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="128" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="93"/>
+      <c r="C34" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="95"/>
       <c r="F34" s="67"/>
       <c r="G34" s="67"/>
-      <c r="H34" s="117"/>
-    </row>
-    <row r="35" s="102" customFormat="1" spans="1:8">
-      <c r="A35" s="108"/>
+      <c r="H34" s="121"/>
+    </row>
+    <row r="35" s="106" customFormat="1" spans="1:8">
+      <c r="A35" s="112"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="66" t="s">
-        <v>91</v>
+      <c r="C35" s="132" t="s">
+        <v>95</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="93"/>
+        <v>96</v>
+      </c>
+      <c r="E35" s="95"/>
       <c r="F35" s="67"/>
       <c r="G35" s="67"/>
-      <c r="H35" s="117"/>
-    </row>
-    <row r="36" s="102" customFormat="1" spans="1:8">
-      <c r="A36" s="108"/>
+      <c r="H35" s="121"/>
+    </row>
+    <row r="36" s="106" customFormat="1" ht="27" spans="1:8">
+      <c r="A36" s="112"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="93"/>
+      <c r="D36" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="95"/>
       <c r="F36" s="67"/>
       <c r="G36" s="67"/>
-      <c r="H36" s="117"/>
-    </row>
-    <row r="37" s="102" customFormat="1" spans="1:8">
-      <c r="A37" s="108"/>
+      <c r="H36" s="121"/>
+    </row>
+    <row r="37" s="106" customFormat="1" spans="1:8">
+      <c r="A37" s="112"/>
       <c r="B37" s="9"/>
       <c r="C37" s="66" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="93"/>
+        <v>99</v>
+      </c>
+      <c r="E37" s="95"/>
       <c r="F37" s="67"/>
       <c r="G37" s="67"/>
-      <c r="H37" s="117"/>
-    </row>
-    <row r="38" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A38" s="108"/>
+      <c r="H37" s="121"/>
+    </row>
+    <row r="38" s="106" customFormat="1" spans="1:8">
+      <c r="A38" s="112"/>
       <c r="B38" s="9"/>
       <c r="C38" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="93"/>
+        <v>73</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="95"/>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
-      <c r="H38" s="117"/>
-    </row>
-    <row r="39" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A39" s="108"/>
+      <c r="H38" s="121"/>
+    </row>
+    <row r="39" s="106" customFormat="1" spans="1:8">
+      <c r="A39" s="112"/>
       <c r="B39" s="9"/>
       <c r="C39" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="93"/>
+        <v>75</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="95"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
-      <c r="H39" s="117"/>
-    </row>
-    <row r="40" s="102" customFormat="1" spans="1:8">
-      <c r="A40" s="108"/>
+      <c r="H39" s="121"/>
+    </row>
+    <row r="40" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A40" s="112"/>
       <c r="B40" s="9"/>
       <c r="C40" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="93"/>
+        <v>102</v>
+      </c>
+      <c r="D40" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="95"/>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>
-      <c r="H40" s="117"/>
-    </row>
-    <row r="41" s="102" customFormat="1" spans="1:8">
-      <c r="A41" s="108"/>
+      <c r="H40" s="121"/>
+    </row>
+    <row r="41" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A41" s="112"/>
       <c r="B41" s="9"/>
       <c r="C41" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="93"/>
+        <v>104</v>
+      </c>
+      <c r="D41" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="95"/>
       <c r="F41" s="67"/>
       <c r="G41" s="67"/>
-      <c r="H41" s="117"/>
-    </row>
-    <row r="42" s="102" customFormat="1" spans="1:8">
-      <c r="A42" s="108"/>
+      <c r="H41" s="121"/>
+    </row>
+    <row r="42" s="106" customFormat="1" spans="1:8">
+      <c r="A42" s="112"/>
       <c r="B42" s="9"/>
       <c r="C42" s="66" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="93"/>
+        <v>107</v>
+      </c>
+      <c r="E42" s="95"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
-      <c r="H42" s="117"/>
-    </row>
-    <row r="43" s="102" customFormat="1" spans="1:8">
-      <c r="A43" s="108"/>
+      <c r="H42" s="121"/>
+    </row>
+    <row r="43" s="106" customFormat="1" spans="1:8">
+      <c r="A43" s="112"/>
       <c r="B43" s="9"/>
       <c r="C43" s="66" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="93"/>
+        <v>108</v>
+      </c>
+      <c r="E43" s="95"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
-      <c r="H43" s="117"/>
-    </row>
-    <row r="44" s="102" customFormat="1" spans="1:8">
-      <c r="A44" s="108"/>
+      <c r="H43" s="121"/>
+    </row>
+    <row r="44" s="106" customFormat="1" spans="1:8">
+      <c r="A44" s="112"/>
       <c r="B44" s="9"/>
       <c r="C44" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="93"/>
+        <v>109</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="95"/>
       <c r="F44" s="67"/>
       <c r="G44" s="67"/>
-      <c r="H44" s="117"/>
-    </row>
-    <row r="45" s="102" customFormat="1" spans="1:8">
-      <c r="A45" s="108"/>
+      <c r="H44" s="121"/>
+    </row>
+    <row r="45" s="106" customFormat="1" spans="1:8">
+      <c r="A45" s="112"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="93"/>
+      <c r="C45" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="95"/>
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
-      <c r="H45" s="117"/>
-    </row>
-    <row r="46" s="102" customFormat="1" spans="1:8">
-      <c r="A46" s="108"/>
+      <c r="H45" s="121"/>
+    </row>
+    <row r="46" s="106" customFormat="1" spans="1:8">
+      <c r="A46" s="112"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="93"/>
+      <c r="C46" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="135" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="95"/>
       <c r="F46" s="67"/>
       <c r="G46" s="67"/>
-      <c r="H46" s="117"/>
-    </row>
-    <row r="47" s="102" customFormat="1" spans="1:8">
-      <c r="A47" s="108"/>
+      <c r="H46" s="121"/>
+    </row>
+    <row r="47" s="106" customFormat="1" spans="1:8">
+      <c r="A47" s="112"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="66" t="s">
-        <v>109</v>
+      <c r="C47" s="136" t="s">
+        <v>115</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="93"/>
+      <c r="E47" s="95"/>
       <c r="F47" s="67"/>
       <c r="G47" s="67"/>
-      <c r="H47" s="117"/>
-    </row>
-    <row r="48" s="102" customFormat="1" spans="1:8">
-      <c r="A48" s="108"/>
+      <c r="H47" s="121"/>
+    </row>
+    <row r="48" s="106" customFormat="1" spans="1:8">
+      <c r="A48" s="112"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="66" t="s">
-        <v>72</v>
+      <c r="C48" s="132" t="s">
+        <v>116</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="93"/>
+      <c r="E48" s="95"/>
       <c r="F48" s="67"/>
       <c r="G48" s="67"/>
-      <c r="H48" s="117"/>
-    </row>
-    <row r="49" s="102" customFormat="1" spans="1:8">
-      <c r="A49" s="108"/>
+      <c r="H48" s="121"/>
+    </row>
+    <row r="49" s="106" customFormat="1" spans="1:8">
+      <c r="A49" s="112"/>
       <c r="B49" s="9"/>
       <c r="C49" s="66" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="93"/>
+      <c r="E49" s="95"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
-      <c r="H49" s="117"/>
-    </row>
-    <row r="50" s="102" customFormat="1" spans="1:8">
-      <c r="A50" s="108"/>
+      <c r="H49" s="121"/>
+    </row>
+    <row r="50" s="106" customFormat="1" spans="1:8">
+      <c r="A50" s="112"/>
       <c r="B50" s="9"/>
       <c r="C50" s="66" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="93"/>
+      <c r="E50" s="95"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
-      <c r="H50" s="117"/>
-    </row>
-    <row r="51" s="102" customFormat="1" spans="1:8">
-      <c r="A51" s="108"/>
+      <c r="H50" s="121"/>
+    </row>
+    <row r="51" s="106" customFormat="1" spans="1:8">
+      <c r="A51" s="112"/>
       <c r="B51" s="9"/>
       <c r="C51" s="66" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="93"/>
+      <c r="E51" s="95"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
-      <c r="H51" s="117"/>
-    </row>
-    <row r="52" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A52" s="131"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="H51" s="121"/>
+    </row>
+    <row r="52" s="106" customFormat="1" spans="1:8">
+      <c r="A52" s="112"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
       <c r="H52" s="121"/>
     </row>
-    <row r="53" ht="25" customHeight="1"/>
-    <row r="54" ht="25" customHeight="1" spans="1:8">
-      <c r="A54" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="132" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="48" t="s">
+    <row r="53" s="106" customFormat="1" spans="1:8">
+      <c r="A53" s="112"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="121"/>
+    </row>
+    <row r="54" s="106" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A54" s="137"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="125"/>
+    </row>
+    <row r="55" ht="25" customHeight="1"/>
+    <row r="56" ht="25" customHeight="1" spans="1:8">
+      <c r="A56" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="138" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="33" t="s">
+      <c r="F56" s="49"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:8">
-      <c r="A55" s="58"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="70"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="35"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:8">
-      <c r="A56" s="58"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="35"/>
-    </row>
-    <row r="57" spans="1:8">
+    <row r="57" ht="14.25" spans="1:8">
       <c r="A57" s="58"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="67"/>
+      <c r="C57" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="70"/>
       <c r="E57" s="66"/>
       <c r="F57" s="67"/>
       <c r="G57" s="17"/>
       <c r="H57" s="35"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" ht="14.25" spans="1:8">
       <c r="A58" s="58"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="67"/>
+      <c r="C58" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="70"/>
       <c r="E58" s="66"/>
       <c r="F58" s="67"/>
       <c r="G58" s="17"/>
@@ -4383,7 +4523,7 @@
       <c r="A59" s="58"/>
       <c r="B59" s="23"/>
       <c r="C59" s="66" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D59" s="67"/>
       <c r="E59" s="66"/>
@@ -4395,7 +4535,7 @@
       <c r="A60" s="58"/>
       <c r="B60" s="23"/>
       <c r="C60" s="66" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D60" s="67"/>
       <c r="E60" s="66"/>
@@ -4407,7 +4547,7 @@
       <c r="A61" s="58"/>
       <c r="B61" s="23"/>
       <c r="C61" s="66" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D61" s="67"/>
       <c r="E61" s="66"/>
@@ -4418,10 +4558,10 @@
     <row r="62" spans="1:8">
       <c r="A62" s="58"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="81"/>
+      <c r="C62" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="67"/>
       <c r="E62" s="66"/>
       <c r="F62" s="67"/>
       <c r="G62" s="17"/>
@@ -4431,7 +4571,7 @@
       <c r="A63" s="58"/>
       <c r="B63" s="23"/>
       <c r="C63" s="66" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D63" s="67"/>
       <c r="E63" s="66"/>
@@ -4442,10 +4582,10 @@
     <row r="64" spans="1:8">
       <c r="A64" s="58"/>
       <c r="B64" s="23"/>
-      <c r="C64" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="67"/>
+      <c r="C64" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="81"/>
       <c r="E64" s="66"/>
       <c r="F64" s="67"/>
       <c r="G64" s="17"/>
@@ -4455,7 +4595,7 @@
       <c r="A65" s="58"/>
       <c r="B65" s="23"/>
       <c r="C65" s="66" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D65" s="67"/>
       <c r="E65" s="66"/>
@@ -4463,49 +4603,49 @@
       <c r="G65" s="17"/>
       <c r="H65" s="35"/>
     </row>
-    <row r="66" ht="14.25" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="58"/>
       <c r="B66" s="23"/>
-      <c r="C66" s="133" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="119"/>
+      <c r="C66" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="67"/>
       <c r="E66" s="66"/>
       <c r="F66" s="67"/>
       <c r="G66" s="17"/>
       <c r="H66" s="35"/>
     </row>
-    <row r="67" ht="14.25" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="58"/>
       <c r="B67" s="23"/>
-      <c r="C67" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="119"/>
+      <c r="C67" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="67"/>
       <c r="E67" s="66"/>
       <c r="F67" s="67"/>
       <c r="G67" s="17"/>
       <c r="H67" s="35"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" ht="14.25" spans="1:8">
       <c r="A68" s="58"/>
       <c r="B68" s="23"/>
-      <c r="C68" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="67"/>
+      <c r="C68" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="123"/>
       <c r="E68" s="66"/>
       <c r="F68" s="67"/>
       <c r="G68" s="17"/>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" ht="14.25" spans="1:8">
       <c r="A69" s="58"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="67"/>
+      <c r="C69" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="123"/>
       <c r="E69" s="66"/>
       <c r="F69" s="67"/>
       <c r="G69" s="17"/>
@@ -4515,7 +4655,7 @@
       <c r="A70" s="58"/>
       <c r="B70" s="23"/>
       <c r="C70" s="66" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D70" s="67"/>
       <c r="E70" s="66"/>
@@ -4524,81 +4664,81 @@
       <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="73"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="51"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="36"/>
-    </row>
-    <row r="72" ht="27" customHeight="1"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="67"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="35"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="58"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="67"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="35"/>
+    </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="122" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="48" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="67"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="35"/>
+    </row>
+    <row r="74" ht="14.25" spans="1:8">
+      <c r="A74" s="73"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="140" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="141"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="36"/>
+    </row>
+    <row r="75" ht="27" customHeight="1"/>
+    <row r="76" spans="1:8">
+      <c r="A76" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="49"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="33" t="s">
+      <c r="F76" s="49"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="58"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="134" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="135"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="35"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="58"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="135"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="35"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="58"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="81"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="58"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="67"/>
+      <c r="C77" s="142" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="143"/>
       <c r="E77" s="66"/>
       <c r="F77" s="67"/>
       <c r="G77" s="17"/>
@@ -4607,10 +4747,10 @@
     <row r="78" spans="1:8">
       <c r="A78" s="58"/>
       <c r="B78" s="23"/>
-      <c r="C78" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="67"/>
+      <c r="C78" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="143"/>
       <c r="E78" s="66"/>
       <c r="F78" s="67"/>
       <c r="G78" s="17"/>
@@ -4619,10 +4759,10 @@
     <row r="79" spans="1:8">
       <c r="A79" s="58"/>
       <c r="B79" s="23"/>
-      <c r="C79" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" s="67"/>
+      <c r="C79" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="81"/>
       <c r="E79" s="66"/>
       <c r="F79" s="67"/>
       <c r="G79" s="17"/>
@@ -4632,7 +4772,7 @@
       <c r="A80" s="58"/>
       <c r="B80" s="23"/>
       <c r="C80" s="66" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D80" s="67"/>
       <c r="E80" s="66"/>
@@ -4644,7 +4784,7 @@
       <c r="A81" s="58"/>
       <c r="B81" s="23"/>
       <c r="C81" s="66" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D81" s="67"/>
       <c r="E81" s="66"/>
@@ -4656,7 +4796,7 @@
       <c r="A82" s="58"/>
       <c r="B82" s="23"/>
       <c r="C82" s="66" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D82" s="67"/>
       <c r="E82" s="66"/>
@@ -4668,7 +4808,7 @@
       <c r="A83" s="58"/>
       <c r="B83" s="23"/>
       <c r="C83" s="66" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D83" s="67"/>
       <c r="E83" s="66"/>
@@ -4680,7 +4820,7 @@
       <c r="A84" s="58"/>
       <c r="B84" s="23"/>
       <c r="C84" s="66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D84" s="67"/>
       <c r="E84" s="66"/>
@@ -4692,7 +4832,7 @@
       <c r="A85" s="58"/>
       <c r="B85" s="23"/>
       <c r="C85" s="66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D85" s="67"/>
       <c r="E85" s="66"/>
@@ -4704,7 +4844,7 @@
       <c r="A86" s="58"/>
       <c r="B86" s="23"/>
       <c r="C86" s="66" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D86" s="67"/>
       <c r="E86" s="66"/>
@@ -4715,10 +4855,10 @@
     <row r="87" spans="1:8">
       <c r="A87" s="58"/>
       <c r="B87" s="23"/>
-      <c r="C87" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="D87" s="26"/>
+      <c r="C87" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="67"/>
       <c r="E87" s="66"/>
       <c r="F87" s="67"/>
       <c r="G87" s="17"/>
@@ -4727,10 +4867,10 @@
     <row r="88" spans="1:8">
       <c r="A88" s="58"/>
       <c r="B88" s="23"/>
-      <c r="C88" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="D88" s="135"/>
+      <c r="C88" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" s="67"/>
       <c r="E88" s="66"/>
       <c r="F88" s="67"/>
       <c r="G88" s="17"/>
@@ -4740,7 +4880,7 @@
       <c r="A89" s="58"/>
       <c r="B89" s="23"/>
       <c r="C89" s="66" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D89" s="67"/>
       <c r="E89" s="66"/>
@@ -4751,10 +4891,10 @@
     <row r="90" spans="1:8">
       <c r="A90" s="58"/>
       <c r="B90" s="23"/>
-      <c r="C90" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D90" s="67"/>
+      <c r="C90" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="26"/>
       <c r="E90" s="66"/>
       <c r="F90" s="67"/>
       <c r="G90" s="17"/>
@@ -4763,10 +4903,10 @@
     <row r="91" spans="1:8">
       <c r="A91" s="58"/>
       <c r="B91" s="23"/>
-      <c r="C91" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="67"/>
+      <c r="C91" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="143"/>
       <c r="E91" s="66"/>
       <c r="F91" s="67"/>
       <c r="G91" s="17"/>
@@ -4776,7 +4916,7 @@
       <c r="A92" s="58"/>
       <c r="B92" s="23"/>
       <c r="C92" s="66" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D92" s="67"/>
       <c r="E92" s="66"/>
@@ -4788,7 +4928,7 @@
       <c r="A93" s="58"/>
       <c r="B93" s="23"/>
       <c r="C93" s="66" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D93" s="67"/>
       <c r="E93" s="66"/>
@@ -4797,19 +4937,55 @@
       <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="73"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="51"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="36"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="67"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="35"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="58"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" s="67"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="35"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="58"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" s="67"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="35"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:8">
+      <c r="A97" s="73"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" s="51"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="75">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -4822,9 +4998,7 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="B24:H24"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
@@ -4841,9 +5015,9 @@
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
@@ -4863,27 +5037,30 @@
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A3:A52"/>
-    <mergeCell ref="A54:A71"/>
-    <mergeCell ref="A73:A94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A3:A54"/>
+    <mergeCell ref="A56:A74"/>
+    <mergeCell ref="A76:A97"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="B24:B52"/>
-    <mergeCell ref="B54:B71"/>
-    <mergeCell ref="B73:B94"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="B25:B54"/>
+    <mergeCell ref="B56:B74"/>
+    <mergeCell ref="B76:B97"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H12:H22"/>
-    <mergeCell ref="H24:H52"/>
-    <mergeCell ref="H54:H71"/>
-    <mergeCell ref="H73:H94"/>
+    <mergeCell ref="H12:H23"/>
+    <mergeCell ref="H25:H54"/>
+    <mergeCell ref="H56:H74"/>
+    <mergeCell ref="H76:H97"/>
     <mergeCell ref="C3:D6"/>
     <mergeCell ref="E8:F10"/>
-    <mergeCell ref="C12:D22"/>
-    <mergeCell ref="E24:F52"/>
-    <mergeCell ref="E54:F71"/>
-    <mergeCell ref="E73:F94"/>
+    <mergeCell ref="C12:D23"/>
+    <mergeCell ref="E25:F54"/>
+    <mergeCell ref="E56:F74"/>
+    <mergeCell ref="E76:F97"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4894,17 +5071,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="34.375" customWidth="1"/>
     <col min="6" max="6" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
@@ -4938,17 +5115,17 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="56" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="57"/>
@@ -4959,7 +5136,7 @@
       <c r="C4" s="66"/>
       <c r="D4" s="67"/>
       <c r="E4" s="66" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F4" s="67"/>
       <c r="G4" s="68"/>
@@ -4970,26 +5147,26 @@
       <c r="C5" s="66"/>
       <c r="D5" s="67"/>
       <c r="E5" s="66" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F5" s="67"/>
       <c r="G5" s="59"/>
     </row>
     <row r="6" ht="15" spans="1:6">
       <c r="A6" s="58"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="58"/>
       <c r="B7" s="13" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="48" t="s">
@@ -5002,7 +5179,7 @@
       <c r="A8" s="58"/>
       <c r="B8" s="23"/>
       <c r="C8" s="66" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="66"/>
@@ -5013,7 +5190,7 @@
       <c r="A9" s="58"/>
       <c r="B9" s="23"/>
       <c r="C9" s="66" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="66"/>
@@ -5024,7 +5201,7 @@
       <c r="A10" s="58"/>
       <c r="B10" s="23"/>
       <c r="C10" s="66" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="66"/>
@@ -5035,7 +5212,7 @@
       <c r="A11" s="58"/>
       <c r="B11" s="23"/>
       <c r="C11" s="66" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="66"/>
@@ -5046,7 +5223,7 @@
       <c r="A12" s="58"/>
       <c r="B12" s="23"/>
       <c r="C12" s="66" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="66"/>
@@ -5057,7 +5234,7 @@
       <c r="A13" s="58"/>
       <c r="B13" s="23"/>
       <c r="C13" s="66" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="66"/>
@@ -5068,7 +5245,7 @@
       <c r="A14" s="58"/>
       <c r="B14" s="23"/>
       <c r="C14" s="66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="66"/>
@@ -5079,7 +5256,7 @@
       <c r="A15" s="73"/>
       <c r="B15" s="15"/>
       <c r="C15" s="50" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="50"/>
@@ -5097,17 +5274,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="56" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="57"/>
@@ -5117,12 +5294,12 @@
       <c r="B18" s="23"/>
       <c r="C18" s="66"/>
       <c r="D18" s="67"/>
-      <c r="E18" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="98"/>
+      <c r="E18" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="100"/>
       <c r="G18" s="68" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5131,7 +5308,7 @@
       <c r="C19" s="66"/>
       <c r="D19" s="67"/>
       <c r="E19" s="66" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="68"/>
@@ -5142,7 +5319,7 @@
       <c r="C20" s="66"/>
       <c r="D20" s="67"/>
       <c r="E20" s="66" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F20" s="67"/>
       <c r="G20" s="68"/>
@@ -5153,7 +5330,7 @@
       <c r="C21" s="66"/>
       <c r="D21" s="67"/>
       <c r="E21" s="66" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F21" s="67"/>
       <c r="G21" s="68"/>
@@ -5164,7 +5341,7 @@
       <c r="C22" s="66"/>
       <c r="D22" s="67"/>
       <c r="E22" s="66" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F22" s="67"/>
       <c r="G22" s="68"/>
@@ -5174,10 +5351,10 @@
       <c r="B23" s="15"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
-      <c r="E23" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="100"/>
+      <c r="E23" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="102"/>
       <c r="G23" s="59"/>
     </row>
     <row r="24" ht="15" spans="1:7">
@@ -5192,10 +5369,10 @@
     <row r="25" spans="1:7">
       <c r="A25" s="58"/>
       <c r="B25" s="13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="48" t="s">
@@ -5208,7 +5385,7 @@
       <c r="A26" s="58"/>
       <c r="B26" s="23"/>
       <c r="C26" s="66" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D26" s="67"/>
       <c r="E26" s="66"/>
@@ -5219,7 +5396,7 @@
       <c r="A27" s="58"/>
       <c r="B27" s="23"/>
       <c r="C27" s="66" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D27" s="67"/>
       <c r="E27" s="66"/>
@@ -5230,7 +5407,7 @@
       <c r="A28" s="58"/>
       <c r="B28" s="23"/>
       <c r="C28" s="66" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="66"/>
@@ -5241,7 +5418,7 @@
       <c r="A29" s="58"/>
       <c r="B29" s="23"/>
       <c r="C29" s="66" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="66"/>
@@ -5252,20 +5429,20 @@
       <c r="A30" s="58"/>
       <c r="B30" s="23"/>
       <c r="C30" s="66" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66"/>
       <c r="F30" s="67"/>
       <c r="G30" s="68"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" ht="27" customHeight="1" spans="1:7">
       <c r="A31" s="58"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="67"/>
+      <c r="C31" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="104"/>
       <c r="E31" s="66"/>
       <c r="F31" s="67"/>
       <c r="G31" s="68"/>
@@ -5274,26 +5451,37 @@
       <c r="A32" s="58"/>
       <c r="B32" s="23"/>
       <c r="C32" s="66" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="66"/>
       <c r="F32" s="67"/>
       <c r="G32" s="68"/>
     </row>
-    <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="73"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="59"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="58"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="73"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -5328,16 +5516,17 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A17:A33"/>
+    <mergeCell ref="A17:A34"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B25:B34"/>
     <mergeCell ref="C3:D5"/>
     <mergeCell ref="E7:F15"/>
     <mergeCell ref="C17:D23"/>
-    <mergeCell ref="E25:F33"/>
+    <mergeCell ref="E25:F34"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5350,8 +5539,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5396,13 +5585,13 @@
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
@@ -5418,7 +5607,7 @@
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="50" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="50"/>
@@ -5436,17 +5625,17 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="75" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D6" s="77"/>
       <c r="E6" s="48" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="57"/>
@@ -5460,7 +5649,7 @@
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
       <c r="E7" s="79" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="68"/>
@@ -5472,7 +5661,7 @@
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
       <c r="E8" s="66" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F8" s="67"/>
       <c r="G8" s="68"/>
@@ -5484,7 +5673,7 @@
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
       <c r="E9" s="66" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F9" s="67"/>
       <c r="G9" s="68"/>
@@ -5496,7 +5685,7 @@
       <c r="C10" s="79"/>
       <c r="D10" s="80"/>
       <c r="E10" s="66" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F10" s="67"/>
       <c r="G10" s="68"/>
@@ -5508,7 +5697,7 @@
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
       <c r="E11" s="66" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F11" s="67"/>
       <c r="G11" s="68"/>
@@ -5519,10 +5708,10 @@
       <c r="B12" s="9"/>
       <c r="C12" s="79"/>
       <c r="D12" s="80"/>
-      <c r="E12" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="67"/>
+      <c r="E12" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="83"/>
       <c r="G12" s="68"/>
       <c r="H12" s="35"/>
     </row>
@@ -5532,7 +5721,7 @@
       <c r="C13" s="79"/>
       <c r="D13" s="80"/>
       <c r="E13" s="66" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F13" s="67"/>
       <c r="G13" s="68"/>
@@ -5544,7 +5733,7 @@
       <c r="C14" s="79"/>
       <c r="D14" s="80"/>
       <c r="E14" s="66" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F14" s="67"/>
       <c r="G14" s="68"/>
@@ -5556,7 +5745,7 @@
       <c r="C15" s="79"/>
       <c r="D15" s="80"/>
       <c r="E15" s="66" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="68"/>
@@ -5568,7 +5757,7 @@
       <c r="C16" s="79"/>
       <c r="D16" s="80"/>
       <c r="E16" s="66" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F16" s="67"/>
       <c r="G16" s="68"/>
@@ -5580,7 +5769,7 @@
       <c r="C17" s="79"/>
       <c r="D17" s="80"/>
       <c r="E17" s="66" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F17" s="67"/>
       <c r="G17" s="59"/>
@@ -5588,19 +5777,19 @@
     </row>
     <row r="18" ht="15" spans="1:6">
       <c r="A18" s="58"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="58"/>
       <c r="B19" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="66" t="s">
@@ -5608,17 +5797,17 @@
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="87" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="58"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="67"/>
+      <c r="C20" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="83"/>
       <c r="E20" s="66"/>
       <c r="F20" s="67"/>
       <c r="G20" s="68"/>
@@ -5628,7 +5817,7 @@
       <c r="A21" s="58"/>
       <c r="B21" s="9"/>
       <c r="C21" s="66" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="66"/>
@@ -5640,7 +5829,7 @@
       <c r="A22" s="58"/>
       <c r="B22" s="9"/>
       <c r="C22" s="66" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="66"/>
@@ -5652,7 +5841,7 @@
       <c r="A23" s="58"/>
       <c r="B23" s="9"/>
       <c r="C23" s="66" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="66"/>
@@ -5664,7 +5853,7 @@
       <c r="A24" s="58"/>
       <c r="B24" s="9"/>
       <c r="C24" s="66" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="66"/>
@@ -5676,7 +5865,7 @@
       <c r="A25" s="73"/>
       <c r="B25" s="11"/>
       <c r="C25" s="50" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="50"/>
@@ -5692,18 +5881,18 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:8">
-      <c r="A27" s="86" t="s">
-        <v>155</v>
+      <c r="A27" s="88" t="s">
+        <v>165</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="48" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="29"/>
@@ -5715,11 +5904,11 @@
       <c r="A28" s="60"/>
       <c r="B28" s="9"/>
       <c r="C28" s="66" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="66" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F28" s="67"/>
       <c r="G28" s="35"/>
@@ -5728,10 +5917,10 @@
     <row r="29" ht="18" customHeight="1" spans="1:8">
       <c r="A29" s="60"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="50" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="36"/>
@@ -5747,114 +5936,114 @@
     </row>
     <row r="31" ht="14.25" spans="1:8">
       <c r="A31" s="60"/>
-      <c r="B31" s="89" t="s">
-        <v>161</v>
+      <c r="B31" s="91" t="s">
+        <v>171</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D31" s="62"/>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="92" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="91"/>
+        <v>172</v>
+      </c>
+      <c r="H31" s="93"/>
     </row>
     <row r="32" ht="14.25" spans="1:8">
       <c r="A32" s="60"/>
-      <c r="B32" s="92"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="64" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D32" s="65"/>
-      <c r="E32" s="93"/>
+      <c r="E32" s="95"/>
       <c r="F32" s="67"/>
       <c r="G32" s="68"/>
       <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="60"/>
-      <c r="B33" s="92"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="66" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D33" s="67"/>
-      <c r="E33" s="93"/>
+      <c r="E33" s="95"/>
       <c r="F33" s="67"/>
       <c r="G33" s="68"/>
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="60"/>
-      <c r="B34" s="92"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="66" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D34" s="67"/>
-      <c r="E34" s="93"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="67"/>
       <c r="G34" s="68"/>
       <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="60"/>
-      <c r="B35" s="92"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="66" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D35" s="67"/>
-      <c r="E35" s="93"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="67"/>
       <c r="G35" s="68"/>
       <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="60"/>
-      <c r="B36" s="92"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="66" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D36" s="67"/>
-      <c r="E36" s="93"/>
+      <c r="E36" s="95"/>
       <c r="F36" s="67"/>
       <c r="G36" s="68"/>
       <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="60"/>
-      <c r="B37" s="92"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="66" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D37" s="67"/>
-      <c r="E37" s="93"/>
+      <c r="E37" s="95"/>
       <c r="F37" s="67"/>
       <c r="G37" s="68"/>
       <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="60"/>
-      <c r="B38" s="92"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D38" s="67"/>
-      <c r="E38" s="93"/>
+      <c r="E38" s="95"/>
       <c r="F38" s="67"/>
       <c r="G38" s="68"/>
       <c r="H38" s="35"/>
     </row>
     <row r="39" ht="14.25" spans="1:8">
-      <c r="A39" s="94"/>
-      <c r="B39" s="95"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="50" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D39" s="51"/>
-      <c r="E39" s="96"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="51"/>
       <c r="G39" s="59"/>
       <c r="H39" s="36"/>
@@ -5979,13 +6168,13 @@
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:7">
       <c r="A3" s="56" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
@@ -5998,7 +6187,7 @@
       <c r="A4" s="58"/>
       <c r="B4" s="11"/>
       <c r="C4" s="50" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="50"/>
@@ -6016,10 +6205,10 @@
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="58"/>
       <c r="B6" s="13" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="48" t="s">
@@ -6027,14 +6216,14 @@
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="63" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="58"/>
       <c r="B7" s="23"/>
       <c r="C7" s="64" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D7" s="65"/>
       <c r="E7" s="66"/>
@@ -6045,7 +6234,7 @@
       <c r="A8" s="58"/>
       <c r="B8" s="23"/>
       <c r="C8" s="69" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D8" s="70"/>
       <c r="E8" s="66"/>
@@ -6056,7 +6245,7 @@
       <c r="A9" s="58"/>
       <c r="B9" s="23"/>
       <c r="C9" s="69" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D9" s="70"/>
       <c r="E9" s="66"/>
@@ -6067,7 +6256,7 @@
       <c r="A10" s="58"/>
       <c r="B10" s="23"/>
       <c r="C10" s="66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="66"/>
@@ -6078,7 +6267,7 @@
       <c r="A11" s="58"/>
       <c r="B11" s="15"/>
       <c r="C11" s="50" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="50"/>
@@ -6096,10 +6285,10 @@
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="58"/>
       <c r="B13" s="6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="48" t="s">
@@ -6112,7 +6301,7 @@
       <c r="A14" s="58"/>
       <c r="B14" s="9"/>
       <c r="C14" s="69" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D14" s="70"/>
       <c r="E14" s="66"/>
@@ -6123,7 +6312,7 @@
       <c r="A15" s="58"/>
       <c r="B15" s="9"/>
       <c r="C15" s="69" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="66"/>
@@ -6134,7 +6323,7 @@
       <c r="A16" s="58"/>
       <c r="B16" s="9"/>
       <c r="C16" s="71" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="66"/>
@@ -6145,7 +6334,7 @@
       <c r="A17" s="58"/>
       <c r="B17" s="9"/>
       <c r="C17" s="69" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="70"/>
       <c r="E17" s="66"/>
@@ -6156,7 +6345,7 @@
       <c r="A18" s="58"/>
       <c r="B18" s="9"/>
       <c r="C18" s="69" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="66"/>
@@ -6167,7 +6356,7 @@
       <c r="A19" s="58"/>
       <c r="B19" s="9"/>
       <c r="C19" s="69" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="66"/>
@@ -6178,7 +6367,7 @@
       <c r="A20" s="58"/>
       <c r="B20" s="9"/>
       <c r="C20" s="66" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D20" s="67"/>
       <c r="E20" s="66"/>
@@ -6189,7 +6378,7 @@
       <c r="A21" s="58"/>
       <c r="B21" s="9"/>
       <c r="C21" s="66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="66"/>
@@ -6200,7 +6389,7 @@
       <c r="A22" s="58"/>
       <c r="B22" s="11"/>
       <c r="C22" s="50" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="50"/>
@@ -6218,10 +6407,10 @@
     <row r="24" ht="14.25" spans="1:7">
       <c r="A24" s="58"/>
       <c r="B24" s="13" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="48" t="s">
@@ -6229,14 +6418,14 @@
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="63" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:7">
       <c r="A25" s="58"/>
       <c r="B25" s="23"/>
       <c r="C25" s="69" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D25" s="70"/>
       <c r="E25" s="66"/>
@@ -6247,7 +6436,7 @@
       <c r="A26" s="58"/>
       <c r="B26" s="23"/>
       <c r="C26" s="64" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="65"/>
       <c r="E26" s="66"/>
@@ -6258,7 +6447,7 @@
       <c r="A27" s="58"/>
       <c r="B27" s="23"/>
       <c r="C27" s="64" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="66"/>
@@ -6269,7 +6458,7 @@
       <c r="A28" s="58"/>
       <c r="B28" s="23"/>
       <c r="C28" s="66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="66"/>
@@ -6280,7 +6469,7 @@
       <c r="A29" s="73"/>
       <c r="B29" s="15"/>
       <c r="C29" s="50" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="50"/>
@@ -6354,20 +6543,20 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="44" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="45" t="s">
@@ -6384,16 +6573,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="48" t="s">
@@ -6409,7 +6598,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="50" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="50"/>
@@ -6426,16 +6615,16 @@
     </row>
     <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="48" t="s">
@@ -6451,7 +6640,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="50" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="50"/>
@@ -6489,7 +6678,7 @@
   <sheetPr/>
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
@@ -6506,22 +6695,22 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -6537,22 +6726,22 @@
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6562,7 +6751,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:6">
@@ -6572,7 +6761,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:1">
@@ -6581,19 +6770,19 @@
     <row r="7" ht="28" customHeight="1" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="13" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:6">
@@ -6603,7 +6792,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="16" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:1">
@@ -6612,19 +6801,19 @@
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="6" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6633,7 +6822,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="17" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -6643,7 +6832,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="17" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -6653,7 +6842,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="17" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -6663,7 +6852,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="18" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -6673,7 +6862,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="17" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -6683,7 +6872,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -6693,16 +6882,16 @@
     <row r="18" ht="27" customHeight="1" spans="1:6">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>9</v>
@@ -6718,22 +6907,22 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -6743,7 +6932,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="16" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" ht="28" customHeight="1" spans="1:6">
@@ -6757,19 +6946,19 @@
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="13" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6778,7 +6967,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="17" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -6788,7 +6977,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="16" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F25" s="12"/>
     </row>
@@ -6803,16 +6992,16 @@
     <row r="27" ht="29" customHeight="1" spans="1:6">
       <c r="A27" s="19"/>
       <c r="B27" s="24" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>9</v>
@@ -6828,22 +7017,22 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6853,7 +7042,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="17" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6863,7 +7052,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="17" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6873,7 +7062,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="17" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:6">
@@ -6883,7 +7072,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="16" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:6">
@@ -6897,19 +7086,19 @@
     <row r="35" spans="1:6">
       <c r="A35" s="8"/>
       <c r="B35" s="25" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6918,7 +7107,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="17" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F36" s="10"/>
     </row>
@@ -6928,7 +7117,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="17" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F37" s="10"/>
     </row>
@@ -6938,7 +7127,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="17" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F38" s="10"/>
     </row>
@@ -6948,7 +7137,7 @@
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="16" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F39" s="12"/>
     </row>
@@ -6963,16 +7152,16 @@
     <row r="41" ht="25" customHeight="1" spans="1:6">
       <c r="A41" s="19"/>
       <c r="B41" s="24" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>9</v>
@@ -6988,22 +7177,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="28" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>10</v>
@@ -7016,7 +7205,7 @@
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="17" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G44" s="30"/>
     </row>
@@ -7027,7 +7216,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="16" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -7042,16 +7231,16 @@
     <row r="47" spans="1:7">
       <c r="A47" s="8"/>
       <c r="B47" s="25" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>9</v>
@@ -7066,7 +7255,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="30"/>
@@ -7077,7 +7266,7 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="16" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="31"/>
@@ -7093,16 +7282,16 @@
     <row r="51" ht="22" customHeight="1" spans="1:7">
       <c r="A51" s="19"/>
       <c r="B51" s="24" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>9</v>
@@ -7121,22 +7310,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="28" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>10</v>
@@ -7149,7 +7338,7 @@
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="17" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G54" s="35"/>
     </row>
@@ -7160,7 +7349,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="17" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G55" s="35"/>
     </row>
@@ -7171,7 +7360,7 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="17" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="G56" s="35"/>
     </row>
@@ -7182,7 +7371,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="17" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G57" s="35"/>
     </row>
@@ -7193,7 +7382,7 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="17" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G58" s="35"/>
     </row>
@@ -7204,7 +7393,7 @@
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="17" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G59" s="35"/>
     </row>
@@ -7215,7 +7404,7 @@
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="17" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G60" s="35"/>
     </row>
@@ -7226,7 +7415,7 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="16" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G61" s="36"/>
     </row>
@@ -7241,16 +7430,16 @@
     <row r="63" spans="1:7">
       <c r="A63" s="8"/>
       <c r="B63" s="25" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D63" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E63" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>265</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>9</v>
@@ -7265,7 +7454,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="17" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="35"/>
@@ -7276,7 +7465,7 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="17" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="35"/>
@@ -7287,7 +7476,7 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="17" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="35"/>
@@ -7298,7 +7487,7 @@
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="17" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="35"/>
@@ -7309,7 +7498,7 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="17" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="35"/>
@@ -7320,7 +7509,7 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="17" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="35"/>
@@ -7331,7 +7520,7 @@
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="16" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="36"/>
@@ -7347,16 +7536,16 @@
     <row r="72" ht="21" customHeight="1" spans="1:7">
       <c r="A72" s="19"/>
       <c r="B72" s="24" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>9</v>
@@ -7368,22 +7557,22 @@
     <row r="73" ht="40" customHeight="1"/>
     <row r="74" spans="1:6">
       <c r="A74" s="28" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7393,7 +7582,7 @@
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="17" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7403,7 +7592,7 @@
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="17" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7413,7 +7602,7 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="17" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7423,7 +7612,7 @@
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="17" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7433,7 +7622,7 @@
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="17" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -7443,7 +7632,7 @@
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="17" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7453,7 +7642,7 @@
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="17" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7463,7 +7652,7 @@
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:6">
@@ -7473,7 +7662,7 @@
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="16" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
@@ -7487,19 +7676,19 @@
     <row r="85" spans="1:6">
       <c r="A85" s="8"/>
       <c r="B85" s="6" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E85" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -7508,7 +7697,7 @@
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="17" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F86" s="10"/>
     </row>
@@ -7518,7 +7707,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="17" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F87" s="10"/>
     </row>
@@ -7528,7 +7717,7 @@
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="17" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -7538,7 +7727,7 @@
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="17" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F89" s="10"/>
     </row>
@@ -7548,7 +7737,7 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="17" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F90" s="10"/>
     </row>
@@ -7558,7 +7747,7 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="17" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F91" s="10"/>
     </row>
@@ -7568,7 +7757,7 @@
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F92" s="10"/>
     </row>
@@ -7578,7 +7767,7 @@
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="17" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F93" s="10"/>
     </row>
@@ -7588,7 +7777,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="17" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F94" s="10"/>
     </row>
@@ -7598,7 +7787,7 @@
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="16" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F95" s="12"/>
     </row>
@@ -7613,16 +7802,16 @@
     <row r="97" ht="18" customHeight="1" spans="1:6">
       <c r="A97" s="19"/>
       <c r="B97" s="20" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F97" s="22" t="s">
         <v>9</v>
@@ -7638,22 +7827,22 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="28" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7663,7 +7852,7 @@
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="17" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7673,7 +7862,7 @@
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="17" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7683,7 +7872,7 @@
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="17" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7693,7 +7882,7 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="17" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7703,7 +7892,7 @@
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="17" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:6">
@@ -7713,7 +7902,7 @@
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="16" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:6">
@@ -7727,16 +7916,16 @@
     <row r="107" spans="1:6">
       <c r="A107" s="8"/>
       <c r="B107" s="6" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>9</v>
@@ -7748,7 +7937,7 @@
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="17" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F108" s="10"/>
     </row>
@@ -7758,7 +7947,7 @@
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="17" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F109" s="10"/>
     </row>
@@ -7768,7 +7957,7 @@
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="17" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F110" s="10"/>
     </row>
@@ -7778,7 +7967,7 @@
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="17" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F111" s="10"/>
     </row>
@@ -7788,7 +7977,7 @@
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="16" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F112" s="12"/>
     </row>
@@ -7803,16 +7992,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="8"/>
       <c r="B114" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E114" s="41" t="s">
         <v>312</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E114" s="41" t="s">
-        <v>302</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>9</v>
@@ -7824,7 +8013,7 @@
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="42" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F115" s="12"/>
     </row>
@@ -7839,16 +8028,16 @@
     <row r="117" ht="24" customHeight="1" spans="1:6">
       <c r="A117" s="19"/>
       <c r="B117" s="20" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="F117" s="21" t="s">
         <v>9</v>

--- a/safe-box-doc/接口-v4.0.xlsx
+++ b/safe-box-doc/接口-v4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8985" activeTab="3"/>
+    <workbookView windowWidth="19455" windowHeight="8985" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339">
   <si>
     <t>功能</t>
   </si>
@@ -262,25 +262,31 @@
     <t>customerSex性别</t>
   </si>
   <si>
+    <t>boxStatus 箱子状态</t>
+  </si>
+  <si>
+    <t>certificateType证件类型</t>
+  </si>
+  <si>
     <t>boxModel箱型</t>
   </si>
   <si>
-    <t>certificateType证件类型</t>
+    <t>certificateNo证件号</t>
   </si>
   <si>
     <t>keyId钥匙号</t>
   </si>
   <si>
-    <t>certificateNo证件号</t>
+    <t>mobile手机号</t>
   </si>
   <si>
     <t>cardNo卡号</t>
   </si>
   <si>
-    <t>mobile手机号</t>
-  </si>
-  <si>
     <t>cardType卡类型</t>
+  </si>
+  <si>
+    <t>cardStatus 卡状态</t>
   </si>
   <si>
     <t>cardStatus状态</t>
@@ -640,37 +646,58 @@
     <t>接口15-reportLoss/setReportLossApply</t>
   </si>
   <si>
-    <t>CardNum卡号</t>
-  </si>
-  <si>
-    <t>见接口十五的备注</t>
-  </si>
-  <si>
-    <t>CardRfid 卡RFID</t>
+    <t>cardNum卡号</t>
   </si>
   <si>
     <t>boxId 箱号</t>
   </si>
   <si>
+    <t>reportLossType 挂失类型 (密码丢失-1,卡挂失-2,钥匙丢失-4,卡和密码丢失-3，钥匙和密码丢失-5，钥匙和卡丢失-6，钥匙、卡和密码丢失-7)</t>
+  </si>
+  <si>
+    <t>新接口-reportLoss/getReportLossType</t>
+  </si>
+  <si>
+    <t>reportlossId 挂失行为ID</t>
+  </si>
+  <si>
+    <t>接口16-reportLoss/setReportLossDetails</t>
+  </si>
+  <si>
+    <t>certificateType(1-身份证 2-RFID)</t>
+  </si>
+  <si>
+    <t>certificateNum(证件号码)</t>
+  </si>
+  <si>
+    <t>密码丢失场景：</t>
+  </si>
+  <si>
+    <t>cardNo 卡号</t>
+  </si>
+  <si>
+    <t>password 密码</t>
+  </si>
+  <si>
+    <t>卡丢失场景：</t>
+  </si>
+  <si>
+    <t>newCardRfid 新卡RFID</t>
+  </si>
+  <si>
+    <t>newCardNo 新卡卡号</t>
+  </si>
+  <si>
+    <t>newCardPassword 新卡密码</t>
+  </si>
+  <si>
+    <t>钥匙丢失场景：</t>
+  </si>
+  <si>
+    <t>接口17-reportLoss/removeReportLossState</t>
+  </si>
+  <si>
     <t>reportLossType 挂失类型 (密码丢失-1,卡挂失-2,钥匙丢失-3)</t>
-  </si>
-  <si>
-    <t>接口16-reportLoss/setReportLossDetails</t>
-  </si>
-  <si>
-    <t>certificateType(1-身份证 2-RFID)</t>
-  </si>
-  <si>
-    <t>certificateNum(证件号码)</t>
-  </si>
-  <si>
-    <t>cardNo 卡号</t>
-  </si>
-  <si>
-    <t>password 密码</t>
-  </si>
-  <si>
-    <t>接口17-reportLoss/removeReportLossState</t>
   </si>
   <si>
     <t>见接口十六的备注</t>
@@ -1106,7 +1133,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,6 +1186,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
@@ -1193,12 +1232,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1323,9 +1356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,8 +1370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,6 +1430,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1415,7 +1460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,7 +1514,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,19 +1550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,24 +1580,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1512,6 +1587,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,55 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,16 +1866,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1854,18 +1881,24 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -2096,10 +2129,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2108,137 +2141,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2422,118 +2455,232 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2542,18 +2689,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2572,7 +2716,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -2584,7 +2728,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2593,7 +2737,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2602,7 +2746,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2614,10 +2758,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2644,7 +2785,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2653,13 +2794,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3088,52 +3226,52 @@
       <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="146" t="s">
+      <c r="D3" s="147"/>
+      <c r="E3" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="148"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:8">
-      <c r="A4" s="144"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="150"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
       <c r="G4" s="12"/>
       <c r="H4" s="36"/>
     </row>
     <row r="6" ht="14.25"/>
     <row r="7" spans="1:8">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="146" t="s">
+      <c r="D7" s="147"/>
+      <c r="E7" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="147"/>
-      <c r="G7" s="148" t="s">
+      <c r="F7" s="182"/>
+      <c r="G7" s="183" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="33" t="s">
@@ -3141,12 +3279,12 @@
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:8">
-      <c r="A8" s="144"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="150"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
       <c r="G8" s="12"/>
       <c r="H8" s="36"/>
     </row>
@@ -3162,7 +3300,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="49"/>
-      <c r="E10" s="126" t="s">
+      <c r="E10" s="107" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="25"/>
@@ -3344,7 +3482,7 @@
       <c r="B25" s="23"/>
       <c r="C25" s="66"/>
       <c r="D25" s="67"/>
-      <c r="E25" s="136" t="s">
+      <c r="E25" s="172" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="26"/>
@@ -3524,7 +3662,7 @@
       <c r="B40" s="23"/>
       <c r="C40" s="66"/>
       <c r="D40" s="67"/>
-      <c r="E40" s="136" t="s">
+      <c r="E40" s="172" t="s">
         <v>48</v>
       </c>
       <c r="F40" s="26"/>
@@ -3640,7 +3778,7 @@
       <c r="H49" s="35"/>
     </row>
     <row r="50" ht="14.25" spans="1:8">
-      <c r="A50" s="73"/>
+      <c r="A50" s="112"/>
       <c r="B50" s="15"/>
       <c r="C50" s="50"/>
       <c r="D50" s="51"/>
@@ -3722,17 +3860,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="49.875" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="107" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="144" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="20.625" customWidth="1"/>
@@ -3761,7 +3899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="105" customFormat="1" ht="31" customHeight="1" spans="1:7">
+    <row r="2" s="142" customFormat="1" ht="31" customHeight="1" spans="1:7">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -3770,73 +3908,73 @@
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
     </row>
-    <row r="3" s="106" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A3" s="108" t="s">
+    <row r="3" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A3" s="145" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="48" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="148" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="106" customFormat="1" spans="1:8">
-      <c r="A4" s="112"/>
+    <row r="4" s="143" customFormat="1" spans="1:8">
+      <c r="A4" s="149"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
-      <c r="H4" s="115"/>
-    </row>
-    <row r="5" s="106" customFormat="1" spans="1:8">
-      <c r="A5" s="112"/>
+      <c r="H4" s="152"/>
+    </row>
+    <row r="5" s="143" customFormat="1" spans="1:8">
+      <c r="A5" s="149"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="66" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
-      <c r="H5" s="115"/>
-    </row>
-    <row r="6" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A6" s="112"/>
+      <c r="H5" s="152"/>
+    </row>
+    <row r="6" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A6" s="149"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="154"/>
       <c r="E6" s="50" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="118"/>
-    </row>
-    <row r="7" s="106" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A7" s="112"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" s="106" customFormat="1" spans="1:8">
-      <c r="A8" s="112"/>
+      <c r="H6" s="155"/>
+    </row>
+    <row r="7" s="143" customFormat="1" ht="28" customHeight="1" spans="1:7">
+      <c r="A7" s="149"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+    </row>
+    <row r="8" s="143" customFormat="1" spans="1:8">
+      <c r="A8" s="149"/>
       <c r="B8" s="6" t="s">
         <v>62</v>
       </c>
@@ -3853,8 +3991,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" s="106" customFormat="1" spans="1:8">
-      <c r="A9" s="112"/>
+    <row r="9" s="143" customFormat="1" spans="1:8">
+      <c r="A9" s="149"/>
       <c r="B9" s="9"/>
       <c r="C9" s="66" t="s">
         <v>63</v>
@@ -3865,8 +4003,8 @@
       <c r="G9" s="67"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A10" s="112"/>
+    <row r="10" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A10" s="149"/>
       <c r="B10" s="11"/>
       <c r="C10" s="50" t="s">
         <v>64</v>
@@ -3877,8 +4015,8 @@
       <c r="G10" s="51"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" s="106" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A11" s="112"/>
+    <row r="11" s="143" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A11" s="149"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -3886,472 +4024,470 @@
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
     </row>
-    <row r="12" s="106" customFormat="1" spans="1:8">
-      <c r="A12" s="112"/>
+    <row r="12" s="143" customFormat="1" spans="1:8">
+      <c r="A12" s="149"/>
       <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="115" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="49"/>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="156" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>68</v>
       </c>
       <c r="G12" s="25"/>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="148" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" s="106" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A13" s="112"/>
+    <row r="13" s="143" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A13" s="149"/>
       <c r="B13" s="9"/>
       <c r="C13" s="66"/>
       <c r="D13" s="67"/>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="121"/>
-    </row>
-    <row r="14" s="106" customFormat="1" spans="1:8">
-      <c r="A14" s="112"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="158"/>
+    </row>
+    <row r="14" s="143" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A14" s="149"/>
       <c r="B14" s="9"/>
       <c r="C14" s="66"/>
       <c r="D14" s="67"/>
-      <c r="E14" s="122" t="s">
+      <c r="E14" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="121"/>
-    </row>
-    <row r="15" s="106" customFormat="1" spans="1:8">
-      <c r="A15" s="112"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="158"/>
+    </row>
+    <row r="15" s="143" customFormat="1" spans="1:8">
+      <c r="A15" s="149"/>
       <c r="B15" s="9"/>
       <c r="C15" s="66"/>
       <c r="D15" s="67"/>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="121"/>
-    </row>
-    <row r="16" s="106" customFormat="1" spans="1:8">
-      <c r="A16" s="112"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="158"/>
+    </row>
+    <row r="16" s="143" customFormat="1" spans="1:8">
+      <c r="A16" s="149"/>
       <c r="B16" s="9"/>
       <c r="C16" s="66"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="159" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="67" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="67"/>
-      <c r="H16" s="121"/>
-    </row>
-    <row r="17" s="106" customFormat="1" spans="1:8">
-      <c r="A17" s="112"/>
+      <c r="H16" s="158"/>
+    </row>
+    <row r="17" s="143" customFormat="1" spans="1:8">
+      <c r="A17" s="149"/>
       <c r="B17" s="9"/>
       <c r="C17" s="66"/>
       <c r="D17" s="67"/>
-      <c r="E17" s="122" t="s">
+      <c r="E17" s="159" t="s">
         <v>77</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="G17" s="67"/>
-      <c r="H17" s="121"/>
-    </row>
-    <row r="18" s="106" customFormat="1" spans="1:8">
-      <c r="A18" s="112"/>
+      <c r="H17" s="158"/>
+    </row>
+    <row r="18" s="143" customFormat="1" spans="1:8">
+      <c r="A18" s="149"/>
       <c r="B18" s="9"/>
       <c r="C18" s="66"/>
       <c r="D18" s="67"/>
-      <c r="E18" s="122" t="s">
-        <v>76</v>
+      <c r="E18" s="159" t="s">
+        <v>78</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G18" s="67"/>
-      <c r="H18" s="121"/>
-    </row>
-    <row r="19" s="106" customFormat="1" spans="1:8">
-      <c r="A19" s="112"/>
+      <c r="H18" s="158"/>
+    </row>
+    <row r="19" s="143" customFormat="1" spans="1:8">
+      <c r="A19" s="149"/>
       <c r="B19" s="9"/>
       <c r="C19" s="66"/>
       <c r="D19" s="67"/>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="159" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="67" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="67"/>
-      <c r="H19" s="121"/>
-    </row>
-    <row r="20" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A20" s="112"/>
+      <c r="H19" s="158"/>
+    </row>
+    <row r="20" s="143" customFormat="1" spans="1:8">
+      <c r="A20" s="149"/>
       <c r="B20" s="9"/>
       <c r="C20" s="66"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="122" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="123" t="s">
+      <c r="E20" s="159" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="123"/>
-      <c r="H20" s="121"/>
-    </row>
-    <row r="21" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A21" s="112"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="158"/>
+    </row>
+    <row r="21" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A21" s="149"/>
       <c r="B21" s="9"/>
       <c r="C21" s="66"/>
       <c r="D21" s="67"/>
-      <c r="E21" s="122" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="123" t="s">
+      <c r="E21" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="123"/>
-      <c r="H21" s="121"/>
-    </row>
-    <row r="22" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A22" s="112"/>
+      <c r="F21" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="160"/>
+      <c r="H21" s="158"/>
+    </row>
+    <row r="22" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A22" s="149"/>
       <c r="B22" s="9"/>
       <c r="C22" s="66"/>
       <c r="D22" s="67"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="123"/>
-      <c r="H22" s="121"/>
-    </row>
-    <row r="23" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A23" s="112"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="51" t="s">
+      <c r="E22" s="159"/>
+      <c r="F22" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="125"/>
-    </row>
-    <row r="24" s="106" customFormat="1" ht="29" customHeight="1" spans="1:8">
-      <c r="A24" s="112"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-    </row>
-    <row r="25" s="106" customFormat="1" spans="1:8">
-      <c r="A25" s="112"/>
-      <c r="B25" s="6" t="s">
+      <c r="G22" s="160"/>
+      <c r="H22" s="158"/>
+    </row>
+    <row r="23" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A23" s="149"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="G23" s="160"/>
+      <c r="H23" s="158"/>
+    </row>
+    <row r="24" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A24" s="149"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="G24" s="51"/>
+      <c r="H24" s="162"/>
+    </row>
+    <row r="25" s="143" customFormat="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A25" s="149"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" s="143" customFormat="1" spans="1:8">
+      <c r="A26" s="149"/>
+      <c r="B26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="C26" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="163" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="111" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="148" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A26" s="112"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="66" t="s">
+    <row r="27" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A27" s="149"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="128" t="s">
+      <c r="D27" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="121"/>
-    </row>
-    <row r="27" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A27" s="112"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="95"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="67"/>
       <c r="G27" s="67"/>
-      <c r="H27" s="121"/>
-    </row>
-    <row r="28" s="106" customFormat="1" spans="1:8">
-      <c r="A28" s="112"/>
+      <c r="H27" s="158"/>
+    </row>
+    <row r="28" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A28" s="149"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="95"/>
+      <c r="C28" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="164"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="67"/>
       <c r="G28" s="67"/>
-      <c r="H28" s="121"/>
-    </row>
-    <row r="29" s="106" customFormat="1" spans="1:8">
-      <c r="A29" s="112"/>
+      <c r="H28" s="158"/>
+    </row>
+    <row r="29" s="143" customFormat="1" spans="1:8">
+      <c r="A29" s="149"/>
       <c r="B29" s="9"/>
       <c r="C29" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="130" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="95"/>
+        <v>90</v>
+      </c>
+      <c r="D29" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="96"/>
       <c r="F29" s="67"/>
       <c r="G29" s="67"/>
-      <c r="H29" s="121"/>
-    </row>
-    <row r="30" s="106" customFormat="1" spans="1:8">
-      <c r="A30" s="112"/>
+      <c r="H29" s="158"/>
+    </row>
+    <row r="30" s="143" customFormat="1" spans="1:8">
+      <c r="A30" s="149"/>
       <c r="B30" s="9"/>
       <c r="C30" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="130" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="95"/>
+        <v>53</v>
+      </c>
+      <c r="D30" s="166" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="96"/>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
-      <c r="H30" s="121"/>
-    </row>
-    <row r="31" s="106" customFormat="1" spans="1:8">
-      <c r="A31" s="112"/>
+      <c r="H30" s="158"/>
+    </row>
+    <row r="31" s="143" customFormat="1" spans="1:8">
+      <c r="A31" s="149"/>
       <c r="B31" s="9"/>
       <c r="C31" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="95"/>
+        <v>54</v>
+      </c>
+      <c r="D31" s="166" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="96"/>
       <c r="F31" s="67"/>
       <c r="G31" s="67"/>
-      <c r="H31" s="121"/>
-    </row>
-    <row r="32" s="106" customFormat="1" spans="1:8">
-      <c r="A32" s="112"/>
+      <c r="H31" s="158"/>
+    </row>
+    <row r="32" s="143" customFormat="1" spans="1:8">
+      <c r="A32" s="149"/>
       <c r="B32" s="9"/>
       <c r="C32" s="66" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="95"/>
+        <v>17</v>
+      </c>
+      <c r="E32" s="96"/>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
-      <c r="H32" s="121"/>
-    </row>
-    <row r="33" s="106" customFormat="1" ht="27.75" spans="1:8">
-      <c r="A33" s="112"/>
+      <c r="H32" s="158"/>
+    </row>
+    <row r="33" s="143" customFormat="1" spans="1:8">
+      <c r="A33" s="149"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="131" t="s">
-        <v>92</v>
+      <c r="C33" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="95"/>
+      <c r="E33" s="96"/>
       <c r="F33" s="67"/>
       <c r="G33" s="67"/>
-      <c r="H33" s="121"/>
-    </row>
-    <row r="34" s="106" customFormat="1" spans="1:8">
-      <c r="A34" s="112"/>
+      <c r="H33" s="158"/>
+    </row>
+    <row r="34" s="143" customFormat="1" ht="27.75" spans="1:8">
+      <c r="A34" s="149"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="126" t="s">
-        <v>67</v>
+      <c r="C34" s="167" t="s">
+        <v>94</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="95"/>
+        <v>95</v>
+      </c>
+      <c r="E34" s="96"/>
       <c r="F34" s="67"/>
       <c r="G34" s="67"/>
-      <c r="H34" s="121"/>
-    </row>
-    <row r="35" s="106" customFormat="1" spans="1:8">
-      <c r="A35" s="112"/>
+      <c r="H34" s="158"/>
+    </row>
+    <row r="35" s="143" customFormat="1" spans="1:8">
+      <c r="A35" s="149"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="132" t="s">
-        <v>95</v>
+      <c r="C35" s="107" t="s">
+        <v>67</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="95"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="67"/>
       <c r="G35" s="67"/>
-      <c r="H35" s="121"/>
-    </row>
-    <row r="36" s="106" customFormat="1" ht="27" spans="1:8">
-      <c r="A36" s="112"/>
+      <c r="H35" s="158"/>
+    </row>
+    <row r="36" s="143" customFormat="1" spans="1:8">
+      <c r="A36" s="149"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="133" t="s">
+      <c r="C36" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="95"/>
+      <c r="D36" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="96"/>
       <c r="F36" s="67"/>
       <c r="G36" s="67"/>
-      <c r="H36" s="121"/>
-    </row>
-    <row r="37" s="106" customFormat="1" spans="1:8">
-      <c r="A37" s="112"/>
+      <c r="H36" s="158"/>
+    </row>
+    <row r="37" s="143" customFormat="1" ht="27" spans="1:8">
+      <c r="A37" s="149"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="95"/>
+      <c r="E37" s="96"/>
       <c r="F37" s="67"/>
       <c r="G37" s="67"/>
-      <c r="H37" s="121"/>
-    </row>
-    <row r="38" s="106" customFormat="1" spans="1:8">
-      <c r="A38" s="112"/>
+      <c r="H37" s="158"/>
+    </row>
+    <row r="38" s="143" customFormat="1" spans="1:8">
+      <c r="A38" s="149"/>
       <c r="B38" s="9"/>
       <c r="C38" s="66" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="95"/>
+        <v>101</v>
+      </c>
+      <c r="E38" s="96"/>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
-      <c r="H38" s="121"/>
-    </row>
-    <row r="39" s="106" customFormat="1" spans="1:8">
-      <c r="A39" s="112"/>
+      <c r="H38" s="158"/>
+    </row>
+    <row r="39" s="143" customFormat="1" spans="1:8">
+      <c r="A39" s="149"/>
       <c r="B39" s="9"/>
       <c r="C39" s="66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="95"/>
+        <v>102</v>
+      </c>
+      <c r="E39" s="96"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
-      <c r="H39" s="121"/>
-    </row>
-    <row r="40" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A40" s="112"/>
+      <c r="H39" s="158"/>
+    </row>
+    <row r="40" s="143" customFormat="1" spans="1:8">
+      <c r="A40" s="149"/>
       <c r="B40" s="9"/>
       <c r="C40" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="95"/>
+      <c r="E40" s="96"/>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>
-      <c r="H40" s="121"/>
-    </row>
-    <row r="41" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A41" s="112"/>
+      <c r="H40" s="158"/>
+    </row>
+    <row r="41" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A41" s="149"/>
       <c r="B41" s="9"/>
       <c r="C41" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="134" t="s">
+      <c r="D41" s="170" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="95"/>
+      <c r="E41" s="96"/>
       <c r="F41" s="67"/>
       <c r="G41" s="67"/>
-      <c r="H41" s="121"/>
-    </row>
-    <row r="42" s="106" customFormat="1" spans="1:8">
-      <c r="A42" s="112"/>
+      <c r="H41" s="158"/>
+    </row>
+    <row r="42" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A42" s="149"/>
       <c r="B42" s="9"/>
       <c r="C42" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="95"/>
+      <c r="E42" s="96"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
-      <c r="H42" s="121"/>
-    </row>
-    <row r="43" s="106" customFormat="1" spans="1:8">
-      <c r="A43" s="112"/>
+      <c r="H42" s="158"/>
+    </row>
+    <row r="43" s="143" customFormat="1" spans="1:8">
+      <c r="A43" s="149"/>
       <c r="B43" s="9"/>
       <c r="C43" s="66" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="95"/>
+        <v>109</v>
+      </c>
+      <c r="E43" s="96"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
-      <c r="H43" s="121"/>
-    </row>
-    <row r="44" s="106" customFormat="1" spans="1:8">
-      <c r="A44" s="112"/>
+      <c r="H43" s="158"/>
+    </row>
+    <row r="44" s="143" customFormat="1" spans="1:8">
+      <c r="A44" s="149"/>
       <c r="B44" s="9"/>
       <c r="C44" s="66" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="95"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="67"/>
       <c r="G44" s="67"/>
-      <c r="H44" s="121"/>
-    </row>
-    <row r="45" s="106" customFormat="1" spans="1:8">
-      <c r="A45" s="112"/>
+      <c r="H44" s="158"/>
+    </row>
+    <row r="45" s="143" customFormat="1" spans="1:8">
+      <c r="A45" s="149"/>
       <c r="B45" s="9"/>
       <c r="C45" s="66" t="s">
         <v>111</v>
@@ -4359,173 +4495,175 @@
       <c r="D45" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="95"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
-      <c r="H45" s="121"/>
-    </row>
-    <row r="46" s="106" customFormat="1" spans="1:8">
-      <c r="A46" s="112"/>
+      <c r="H45" s="158"/>
+    </row>
+    <row r="46" s="143" customFormat="1" spans="1:8">
+      <c r="A46" s="149"/>
       <c r="B46" s="9"/>
       <c r="C46" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="135" t="s">
+      <c r="D46" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="95"/>
+      <c r="E46" s="96"/>
       <c r="F46" s="67"/>
       <c r="G46" s="67"/>
-      <c r="H46" s="121"/>
-    </row>
-    <row r="47" s="106" customFormat="1" spans="1:8">
-      <c r="A47" s="112"/>
+      <c r="H46" s="158"/>
+    </row>
+    <row r="47" s="143" customFormat="1" spans="1:8">
+      <c r="A47" s="149"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="136" t="s">
+      <c r="C47" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="95"/>
+      <c r="D47" s="171" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="96"/>
       <c r="F47" s="67"/>
       <c r="G47" s="67"/>
-      <c r="H47" s="121"/>
-    </row>
-    <row r="48" s="106" customFormat="1" spans="1:8">
-      <c r="A48" s="112"/>
+      <c r="H47" s="158"/>
+    </row>
+    <row r="48" s="143" customFormat="1" spans="1:8">
+      <c r="A48" s="149"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="132" t="s">
-        <v>116</v>
+      <c r="C48" s="172" t="s">
+        <v>117</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="95"/>
+      <c r="E48" s="96"/>
       <c r="F48" s="67"/>
       <c r="G48" s="67"/>
-      <c r="H48" s="121"/>
-    </row>
-    <row r="49" s="106" customFormat="1" spans="1:8">
-      <c r="A49" s="112"/>
+      <c r="H48" s="158"/>
+    </row>
+    <row r="49" s="143" customFormat="1" spans="1:8">
+      <c r="A49" s="149"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="66" t="s">
-        <v>117</v>
+      <c r="C49" s="168" t="s">
+        <v>118</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="95"/>
+      <c r="E49" s="96"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
-      <c r="H49" s="121"/>
-    </row>
-    <row r="50" s="106" customFormat="1" spans="1:8">
-      <c r="A50" s="112"/>
+      <c r="H49" s="158"/>
+    </row>
+    <row r="50" s="143" customFormat="1" spans="1:8">
+      <c r="A50" s="149"/>
       <c r="B50" s="9"/>
       <c r="C50" s="66" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="95"/>
+      <c r="E50" s="96"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
-      <c r="H50" s="121"/>
-    </row>
-    <row r="51" s="106" customFormat="1" spans="1:8">
-      <c r="A51" s="112"/>
+      <c r="H50" s="158"/>
+    </row>
+    <row r="51" s="143" customFormat="1" spans="1:8">
+      <c r="A51" s="149"/>
       <c r="B51" s="9"/>
       <c r="C51" s="66" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="95"/>
+      <c r="E51" s="96"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
-      <c r="H51" s="121"/>
-    </row>
-    <row r="52" s="106" customFormat="1" spans="1:8">
-      <c r="A52" s="112"/>
+      <c r="H51" s="158"/>
+    </row>
+    <row r="52" s="143" customFormat="1" spans="1:8">
+      <c r="A52" s="149"/>
       <c r="B52" s="9"/>
       <c r="C52" s="66" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="95"/>
+      <c r="E52" s="96"/>
       <c r="F52" s="67"/>
       <c r="G52" s="67"/>
-      <c r="H52" s="121"/>
-    </row>
-    <row r="53" s="106" customFormat="1" spans="1:8">
-      <c r="A53" s="112"/>
+      <c r="H52" s="158"/>
+    </row>
+    <row r="53" s="143" customFormat="1" spans="1:8">
+      <c r="A53" s="149"/>
       <c r="B53" s="9"/>
       <c r="C53" s="66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="95"/>
+      <c r="E53" s="96"/>
       <c r="F53" s="67"/>
       <c r="G53" s="67"/>
-      <c r="H53" s="121"/>
-    </row>
-    <row r="54" s="106" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A54" s="137"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="125"/>
-    </row>
-    <row r="55" ht="25" customHeight="1"/>
-    <row r="56" ht="25" customHeight="1" spans="1:8">
-      <c r="A56" s="56" t="s">
+      <c r="H53" s="158"/>
+    </row>
+    <row r="54" s="143" customFormat="1" spans="1:8">
+      <c r="A54" s="149"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="158"/>
+    </row>
+    <row r="55" s="143" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A55" s="173"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="162"/>
+    </row>
+    <row r="56" ht="25" customHeight="1"/>
+    <row r="57" ht="25" customHeight="1" spans="1:8">
+      <c r="A57" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="138" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48" t="s">
+      <c r="B57" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="47"/>
+      <c r="E57" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="33" t="s">
+      <c r="F57" s="49"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:8">
-      <c r="A57" s="58"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="35"/>
     </row>
     <row r="58" ht="14.25" spans="1:8">
       <c r="A58" s="58"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="70"/>
+      <c r="C58" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="65"/>
       <c r="E58" s="66"/>
       <c r="F58" s="67"/>
       <c r="G58" s="17"/>
       <c r="H58" s="35"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" ht="14.25" spans="1:8">
       <c r="A59" s="58"/>
       <c r="B59" s="23"/>
-      <c r="C59" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="67"/>
+      <c r="C59" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="65"/>
       <c r="E59" s="66"/>
       <c r="F59" s="67"/>
       <c r="G59" s="17"/>
@@ -4535,7 +4673,7 @@
       <c r="A60" s="58"/>
       <c r="B60" s="23"/>
       <c r="C60" s="66" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D60" s="67"/>
       <c r="E60" s="66"/>
@@ -4559,7 +4697,7 @@
       <c r="A62" s="58"/>
       <c r="B62" s="23"/>
       <c r="C62" s="66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="66"/>
@@ -4582,10 +4720,10 @@
     <row r="64" spans="1:8">
       <c r="A64" s="58"/>
       <c r="B64" s="23"/>
-      <c r="C64" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="81"/>
+      <c r="C64" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="67"/>
       <c r="E64" s="66"/>
       <c r="F64" s="67"/>
       <c r="G64" s="17"/>
@@ -4594,10 +4732,10 @@
     <row r="65" spans="1:8">
       <c r="A65" s="58"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="67"/>
+      <c r="D65" s="120"/>
       <c r="E65" s="66"/>
       <c r="F65" s="67"/>
       <c r="G65" s="17"/>
@@ -4607,7 +4745,7 @@
       <c r="A66" s="58"/>
       <c r="B66" s="23"/>
       <c r="C66" s="66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D66" s="67"/>
       <c r="E66" s="66"/>
@@ -4619,7 +4757,7 @@
       <c r="A67" s="58"/>
       <c r="B67" s="23"/>
       <c r="C67" s="66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D67" s="67"/>
       <c r="E67" s="66"/>
@@ -4627,13 +4765,13 @@
       <c r="G67" s="17"/>
       <c r="H67" s="35"/>
     </row>
-    <row r="68" ht="14.25" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="58"/>
       <c r="B68" s="23"/>
-      <c r="C68" s="139" t="s">
+      <c r="C68" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="123"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="66"/>
       <c r="F68" s="67"/>
       <c r="G68" s="17"/>
@@ -4642,22 +4780,22 @@
     <row r="69" ht="14.25" spans="1:8">
       <c r="A69" s="58"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="139" t="s">
+      <c r="C69" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="123"/>
+      <c r="D69" s="160"/>
       <c r="E69" s="66"/>
       <c r="F69" s="67"/>
       <c r="G69" s="17"/>
       <c r="H69" s="35"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" ht="14.25" spans="1:8">
       <c r="A70" s="58"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="D70" s="67"/>
+      <c r="D70" s="160"/>
       <c r="E70" s="66"/>
       <c r="F70" s="67"/>
       <c r="G70" s="17"/>
@@ -4667,7 +4805,7 @@
       <c r="A71" s="58"/>
       <c r="B71" s="23"/>
       <c r="C71" s="66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D71" s="67"/>
       <c r="E71" s="66"/>
@@ -4699,58 +4837,58 @@
       <c r="G73" s="17"/>
       <c r="H73" s="35"/>
     </row>
-    <row r="74" ht="14.25" spans="1:8">
-      <c r="A74" s="73"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="140" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="58"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="141"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="36"/>
-    </row>
-    <row r="75" ht="27" customHeight="1"/>
-    <row r="76" spans="1:8">
-      <c r="A76" s="56" t="s">
+      <c r="D74" s="67"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="35"/>
+    </row>
+    <row r="75" ht="14.25" spans="1:8">
+      <c r="A75" s="112"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="175" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="176"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="36"/>
+    </row>
+    <row r="76" ht="27" customHeight="1"/>
+    <row r="77" spans="1:8">
+      <c r="A77" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="126" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="48" t="s">
+      <c r="B77" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="49"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="33" t="s">
+      <c r="F77" s="49"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="58"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="142" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="143"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="58"/>
       <c r="B78" s="23"/>
-      <c r="C78" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="D78" s="143"/>
+      <c r="C78" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="178"/>
       <c r="E78" s="66"/>
       <c r="F78" s="67"/>
       <c r="G78" s="17"/>
@@ -4759,10 +4897,10 @@
     <row r="79" spans="1:8">
       <c r="A79" s="58"/>
       <c r="B79" s="23"/>
-      <c r="C79" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="81"/>
+      <c r="C79" s="168" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="178"/>
       <c r="E79" s="66"/>
       <c r="F79" s="67"/>
       <c r="G79" s="17"/>
@@ -4771,10 +4909,10 @@
     <row r="80" spans="1:8">
       <c r="A80" s="58"/>
       <c r="B80" s="23"/>
-      <c r="C80" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" s="67"/>
+      <c r="C80" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="120"/>
       <c r="E80" s="66"/>
       <c r="F80" s="67"/>
       <c r="G80" s="17"/>
@@ -4784,7 +4922,7 @@
       <c r="A81" s="58"/>
       <c r="B81" s="23"/>
       <c r="C81" s="66" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D81" s="67"/>
       <c r="E81" s="66"/>
@@ -4796,7 +4934,7 @@
       <c r="A82" s="58"/>
       <c r="B82" s="23"/>
       <c r="C82" s="66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D82" s="67"/>
       <c r="E82" s="66"/>
@@ -4808,7 +4946,7 @@
       <c r="A83" s="58"/>
       <c r="B83" s="23"/>
       <c r="C83" s="66" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D83" s="67"/>
       <c r="E83" s="66"/>
@@ -4844,7 +4982,7 @@
       <c r="A86" s="58"/>
       <c r="B86" s="23"/>
       <c r="C86" s="66" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D86" s="67"/>
       <c r="E86" s="66"/>
@@ -4856,7 +4994,7 @@
       <c r="A87" s="58"/>
       <c r="B87" s="23"/>
       <c r="C87" s="66" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D87" s="67"/>
       <c r="E87" s="66"/>
@@ -4891,10 +5029,10 @@
     <row r="90" spans="1:8">
       <c r="A90" s="58"/>
       <c r="B90" s="23"/>
-      <c r="C90" s="136" t="s">
+      <c r="C90" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="26"/>
+      <c r="D90" s="67"/>
       <c r="E90" s="66"/>
       <c r="F90" s="67"/>
       <c r="G90" s="17"/>
@@ -4903,10 +5041,10 @@
     <row r="91" spans="1:8">
       <c r="A91" s="58"/>
       <c r="B91" s="23"/>
-      <c r="C91" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="143"/>
+      <c r="C91" s="172" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" s="26"/>
       <c r="E91" s="66"/>
       <c r="F91" s="67"/>
       <c r="G91" s="17"/>
@@ -4915,10 +5053,10 @@
     <row r="92" spans="1:8">
       <c r="A92" s="58"/>
       <c r="B92" s="23"/>
-      <c r="C92" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="67"/>
+      <c r="C92" s="168" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="178"/>
       <c r="E92" s="66"/>
       <c r="F92" s="67"/>
       <c r="G92" s="17"/>
@@ -4928,7 +5066,7 @@
       <c r="A93" s="58"/>
       <c r="B93" s="23"/>
       <c r="C93" s="66" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D93" s="67"/>
       <c r="E93" s="66"/>
@@ -4940,7 +5078,7 @@
       <c r="A94" s="58"/>
       <c r="B94" s="23"/>
       <c r="C94" s="66" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D94" s="67"/>
       <c r="E94" s="66"/>
@@ -4952,7 +5090,7 @@
       <c r="A95" s="58"/>
       <c r="B95" s="23"/>
       <c r="C95" s="66" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="D95" s="67"/>
       <c r="E95" s="66"/>
@@ -4964,7 +5102,7 @@
       <c r="A96" s="58"/>
       <c r="B96" s="23"/>
       <c r="C96" s="66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D96" s="67"/>
       <c r="E96" s="66"/>
@@ -4972,17 +5110,29 @@
       <c r="G96" s="17"/>
       <c r="H96" s="35"/>
     </row>
-    <row r="97" ht="14.25" spans="1:8">
-      <c r="A97" s="73"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D97" s="51"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="36"/>
+    <row r="97" spans="1:8">
+      <c r="A97" s="58"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" s="67"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="35"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:8">
+      <c r="A98" s="112"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" s="51"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="75">
@@ -4998,8 +5148,7 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B25:H25"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
@@ -5018,7 +5167,7 @@
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C79:D79"/>
@@ -5040,27 +5189,28 @@
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A3:A54"/>
-    <mergeCell ref="A56:A74"/>
-    <mergeCell ref="A76:A97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A3:A55"/>
+    <mergeCell ref="A57:A75"/>
+    <mergeCell ref="A77:A98"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="B25:B54"/>
-    <mergeCell ref="B56:B74"/>
-    <mergeCell ref="B76:B97"/>
+    <mergeCell ref="B12:B24"/>
+    <mergeCell ref="B26:B55"/>
+    <mergeCell ref="B57:B75"/>
+    <mergeCell ref="B77:B98"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H12:H23"/>
-    <mergeCell ref="H25:H54"/>
-    <mergeCell ref="H56:H74"/>
-    <mergeCell ref="H76:H97"/>
+    <mergeCell ref="H12:H24"/>
+    <mergeCell ref="H26:H55"/>
+    <mergeCell ref="H57:H75"/>
+    <mergeCell ref="H77:H98"/>
     <mergeCell ref="C3:D6"/>
     <mergeCell ref="E8:F10"/>
-    <mergeCell ref="C12:D23"/>
-    <mergeCell ref="E25:F54"/>
-    <mergeCell ref="E56:F74"/>
-    <mergeCell ref="E76:F97"/>
+    <mergeCell ref="C12:D24"/>
+    <mergeCell ref="E26:F55"/>
+    <mergeCell ref="E57:F75"/>
+    <mergeCell ref="E77:F98"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5073,7 +5223,7 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25:B34"/>
     </sheetView>
   </sheetViews>
@@ -5115,17 +5265,17 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="57"/>
@@ -5136,10 +5286,10 @@
       <c r="C4" s="66"/>
       <c r="D4" s="67"/>
       <c r="E4" s="66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
+      <c r="G4" s="91"/>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="58"/>
@@ -5147,26 +5297,26 @@
       <c r="C5" s="66"/>
       <c r="D5" s="67"/>
       <c r="E5" s="66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="67"/>
       <c r="G5" s="59"/>
     </row>
     <row r="6" ht="15" spans="1:6">
       <c r="A6" s="58"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="58"/>
       <c r="B7" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="48" t="s">
@@ -5179,84 +5329,84 @@
       <c r="A8" s="58"/>
       <c r="B8" s="23"/>
       <c r="C8" s="66" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="66"/>
       <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
+      <c r="G8" s="91"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="58"/>
       <c r="B9" s="23"/>
       <c r="C9" s="66" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="66"/>
       <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="G9" s="91"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="58"/>
       <c r="B10" s="23"/>
       <c r="C10" s="66" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="66"/>
       <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="58"/>
       <c r="B11" s="23"/>
       <c r="C11" s="66" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="66"/>
       <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="G11" s="91"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="58"/>
       <c r="B12" s="23"/>
       <c r="C12" s="66" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="66"/>
       <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="G12" s="91"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="58"/>
       <c r="B13" s="23"/>
       <c r="C13" s="66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="66"/>
       <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="58"/>
       <c r="B14" s="23"/>
       <c r="C14" s="66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="66"/>
       <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="G14" s="91"/>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="73"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="15"/>
       <c r="C15" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="50"/>
@@ -5274,17 +5424,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="56" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="57"/>
@@ -5294,12 +5444,12 @@
       <c r="B18" s="23"/>
       <c r="C18" s="66"/>
       <c r="D18" s="67"/>
-      <c r="E18" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="68" t="s">
-        <v>143</v>
+      <c r="E18" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="138"/>
+      <c r="G18" s="91" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5308,10 +5458,10 @@
       <c r="C19" s="66"/>
       <c r="D19" s="67"/>
       <c r="E19" s="66" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="58"/>
@@ -5319,10 +5469,10 @@
       <c r="C20" s="66"/>
       <c r="D20" s="67"/>
       <c r="E20" s="66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="G20" s="91"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="58"/>
@@ -5330,10 +5480,10 @@
       <c r="C21" s="66"/>
       <c r="D21" s="67"/>
       <c r="E21" s="66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="G21" s="91"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="58"/>
@@ -5341,20 +5491,20 @@
       <c r="C22" s="66"/>
       <c r="D22" s="67"/>
       <c r="E22" s="66" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
+      <c r="G22" s="91"/>
     </row>
     <row r="23" ht="14.25" spans="1:7">
       <c r="A23" s="58"/>
       <c r="B23" s="15"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
-      <c r="E23" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="102"/>
+      <c r="E23" s="139" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="140"/>
       <c r="G23" s="59"/>
     </row>
     <row r="24" ht="15" spans="1:7">
@@ -5369,10 +5519,10 @@
     <row r="25" spans="1:7">
       <c r="A25" s="58"/>
       <c r="B25" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="48" t="s">
@@ -5385,95 +5535,95 @@
       <c r="A26" s="58"/>
       <c r="B26" s="23"/>
       <c r="C26" s="66" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D26" s="67"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
+      <c r="G26" s="91"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58"/>
       <c r="B27" s="23"/>
       <c r="C27" s="66" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D27" s="67"/>
       <c r="E27" s="66"/>
       <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="58"/>
       <c r="B28" s="23"/>
       <c r="C28" s="66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="66"/>
       <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
+      <c r="G28" s="91"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="58"/>
       <c r="B29" s="23"/>
       <c r="C29" s="66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="66"/>
       <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
+      <c r="G29" s="91"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="58"/>
       <c r="B30" s="23"/>
       <c r="C30" s="66" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="66"/>
       <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
+      <c r="G30" s="91"/>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:7">
       <c r="A31" s="58"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="104"/>
+      <c r="C31" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="122"/>
       <c r="E31" s="66"/>
       <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
+      <c r="G31" s="91"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="58"/>
       <c r="B32" s="23"/>
       <c r="C32" s="66" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="66"/>
       <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
+      <c r="G32" s="91"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="58"/>
       <c r="B33" s="23"/>
       <c r="C33" s="66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="66"/>
       <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="G33" s="91"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="73"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="15"/>
       <c r="C34" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="50"/>
@@ -5539,7 +5689,7 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -5576,22 +5726,22 @@
       </c>
     </row>
     <row r="2" ht="34" customHeight="1" spans="1:6">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
@@ -5607,7 +5757,7 @@
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="50"/>
@@ -5624,18 +5774,18 @@
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="75" t="s">
-        <v>158</v>
+      <c r="A6" s="114" t="s">
+        <v>160</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="77"/>
+        <v>161</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="116"/>
       <c r="E6" s="48" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="57"/>
@@ -5644,132 +5794,132 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="78"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="79" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="68"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="78"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="66" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="78"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="66" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="78"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="66" t="s">
         <v>75</v>
       </c>
       <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="78"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="78"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="68"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="122"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="78"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="78"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="78"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="66" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="78"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="35"/>
     </row>
     <row r="17" ht="14.25" spans="1:8">
-      <c r="A17" s="78"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="66" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="67"/>
       <c r="G17" s="59"/>
@@ -5777,19 +5927,19 @@
     </row>
     <row r="18" ht="15" spans="1:6">
       <c r="A18" s="58"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="125"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="58"/>
       <c r="B19" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="66" t="s">
@@ -5797,44 +5947,44 @@
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="126" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="58"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="83"/>
+      <c r="C20" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="122"/>
       <c r="E20" s="66"/>
       <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="G20" s="91"/>
       <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="58"/>
       <c r="B21" s="9"/>
       <c r="C21" s="66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="66"/>
       <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="G21" s="91"/>
       <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="58"/>
       <c r="B22" s="9"/>
       <c r="C22" s="66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="66"/>
       <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
+      <c r="G22" s="91"/>
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8">
@@ -5846,26 +5996,26 @@
       <c r="D23" s="67"/>
       <c r="E23" s="66"/>
       <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
+      <c r="G23" s="91"/>
       <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="58"/>
       <c r="B24" s="9"/>
       <c r="C24" s="66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="66"/>
       <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
+      <c r="G24" s="91"/>
       <c r="H24" s="35"/>
     </row>
     <row r="25" ht="14.25" spans="1:8">
-      <c r="A25" s="73"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="11"/>
       <c r="C25" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="50"/>
@@ -5881,18 +6031,18 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:8">
-      <c r="A27" s="88" t="s">
-        <v>165</v>
+      <c r="A27" s="127" t="s">
+        <v>167</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="29"/>
@@ -5904,11 +6054,11 @@
       <c r="A28" s="60"/>
       <c r="B28" s="9"/>
       <c r="C28" s="66" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="66" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F28" s="67"/>
       <c r="G28" s="35"/>
@@ -5917,10 +6067,10 @@
     <row r="29" ht="18" customHeight="1" spans="1:8">
       <c r="A29" s="60"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="36"/>
@@ -5936,114 +6086,114 @@
     </row>
     <row r="31" ht="14.25" spans="1:8">
       <c r="A31" s="60"/>
-      <c r="B31" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>76</v>
+      <c r="B31" s="130" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>78</v>
       </c>
       <c r="D31" s="62"/>
-      <c r="E31" s="92" t="s">
+      <c r="E31" s="132" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="H31" s="93"/>
+        <v>174</v>
+      </c>
+      <c r="H31" s="133"/>
     </row>
     <row r="32" ht="14.25" spans="1:8">
       <c r="A32" s="60"/>
       <c r="B32" s="94"/>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="95"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
+      <c r="G32" s="91"/>
       <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="60"/>
       <c r="B33" s="94"/>
       <c r="C33" s="66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D33" s="67"/>
-      <c r="E33" s="95"/>
+      <c r="E33" s="96"/>
       <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="G33" s="91"/>
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="60"/>
       <c r="B34" s="94"/>
       <c r="C34" s="66" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D34" s="67"/>
-      <c r="E34" s="95"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="60"/>
       <c r="B35" s="94"/>
       <c r="C35" s="66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D35" s="67"/>
-      <c r="E35" s="95"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="60"/>
       <c r="B36" s="94"/>
       <c r="C36" s="66" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D36" s="67"/>
-      <c r="E36" s="95"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
+      <c r="G36" s="91"/>
       <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="60"/>
       <c r="B37" s="94"/>
       <c r="C37" s="66" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D37" s="67"/>
-      <c r="E37" s="95"/>
+      <c r="E37" s="96"/>
       <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="60"/>
       <c r="B38" s="94"/>
       <c r="C38" s="66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="67"/>
-      <c r="E38" s="95"/>
+      <c r="E38" s="96"/>
       <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
+      <c r="G38" s="91"/>
       <c r="H38" s="35"/>
     </row>
     <row r="39" ht="14.25" spans="1:8">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="51"/>
-      <c r="E39" s="98"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="51"/>
       <c r="G39" s="59"/>
       <c r="H39" s="36"/>
@@ -6120,10 +6270,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B22"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6131,7 +6281,7 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="49.375" customWidth="1"/>
     <col min="4" max="4" width="56.5" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
     <col min="7" max="7" width="27.875" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
   </cols>
@@ -6168,13 +6318,13 @@
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:7">
       <c r="A3" s="56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
@@ -6187,7 +6337,7 @@
       <c r="A4" s="58"/>
       <c r="B4" s="11"/>
       <c r="C4" s="50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="50"/>
@@ -6205,25 +6355,23 @@
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="58"/>
       <c r="B6" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="63" t="s">
-        <v>180</v>
-      </c>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="58"/>
       <c r="B7" s="23"/>
       <c r="C7" s="64" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="D7" s="65"/>
       <c r="E7" s="66"/>
@@ -6233,15 +6381,15 @@
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="58"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="66"/>
       <c r="F8" s="67"/>
       <c r="G8" s="68"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" ht="33" customHeight="1" spans="1:7">
       <c r="A9" s="58"/>
       <c r="B9" s="23"/>
       <c r="C9" s="69" t="s">
@@ -6256,7 +6404,7 @@
       <c r="A10" s="58"/>
       <c r="B10" s="23"/>
       <c r="C10" s="66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="66"/>
@@ -6267,217 +6415,334 @@
       <c r="A11" s="58"/>
       <c r="B11" s="15"/>
       <c r="C11" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
-      <c r="G11" s="59"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" ht="15" spans="1:6">
       <c r="A12" s="58"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="58"/>
-      <c r="B13" s="6" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+    </row>
+    <row r="13" ht="54" customHeight="1" spans="1:6">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="79"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="74"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="57"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="58"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="58"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15" s="74"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="87"/>
+    </row>
+    <row r="16" ht="15" spans="1:6">
       <c r="A16" s="58"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" ht="14.25" spans="1:7">
       <c r="A17" s="58"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
+      <c r="B17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
       <c r="A18" s="58"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="69" t="s">
-        <v>187</v>
+      <c r="C18" s="90" t="s">
+        <v>188</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="66"/>
       <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="G18" s="91"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="58"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="70"/>
+      <c r="C19" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="93"/>
       <c r="E19" s="66"/>
       <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="91"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="58"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="67"/>
+      <c r="C20" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="65"/>
       <c r="E20" s="66"/>
       <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="91"/>
+    </row>
+    <row r="21" ht="34" customHeight="1" spans="1:7">
       <c r="A21" s="58"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="67"/>
+      <c r="C21" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="70"/>
       <c r="E21" s="66"/>
       <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
+      <c r="G21" s="91"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:7">
       <c r="A22" s="58"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="59"/>
-    </row>
-    <row r="23" ht="15" spans="1:6">
-      <c r="A23" s="60"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="91"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="58"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="91"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
       <c r="A24" s="58"/>
-      <c r="B24" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="63" t="s">
+      <c r="B24" s="94"/>
+      <c r="C24" s="64" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
+      <c r="D24" s="65"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="91"/>
+    </row>
+    <row r="25" ht="15" spans="1:7">
       <c r="A25" s="58"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="66"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="98"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
+      <c r="G25" s="91"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
       <c r="A26" s="58"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
+      <c r="G26" s="91"/>
     </row>
     <row r="27" ht="14.25" spans="1:7">
       <c r="A27" s="58"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="104"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="91"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="58"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="66"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="106"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="73"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="50" t="s">
+      <c r="G28" s="91"/>
+    </row>
+    <row r="29" ht="15" spans="1:7">
+      <c r="A29" s="58"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="106"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="91"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="58"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="91"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="58"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="91"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="58"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="59"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="91"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="58"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="59"/>
+    </row>
+    <row r="34" ht="15" spans="1:6">
+      <c r="A34" s="60"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="58"/>
+      <c r="B35" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="89"/>
+      <c r="E35" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="49"/>
+      <c r="G35" s="109" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="58"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="91"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="58"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="111"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="91"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="58"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="111"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="91"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="58"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="91"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="112"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="52">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -6490,33 +6755,46 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A3:A40"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B33"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="G6:G11"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="E6:F11"/>
-    <mergeCell ref="E13:F22"/>
-    <mergeCell ref="E24:F29"/>
+    <mergeCell ref="E17:F33"/>
+    <mergeCell ref="E35:F40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -6543,20 +6821,20 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="44" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="45" t="s">
@@ -6573,13 +6851,13 @@
     </row>
     <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>70</v>
@@ -6598,7 +6876,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="50" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="50"/>
@@ -6615,13 +6893,13 @@
     </row>
     <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>70</v>
@@ -6640,7 +6918,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="50" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="50"/>
@@ -6695,22 +6973,22 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -6726,22 +7004,22 @@
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6751,7 +7029,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:6">
@@ -6761,7 +7039,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:1">
@@ -6770,19 +7048,19 @@
     <row r="7" ht="28" customHeight="1" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="13" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:6">
@@ -6792,7 +7070,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="16" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:1">
@@ -6801,19 +7079,19 @@
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6822,7 +7100,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -6832,7 +7110,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="17" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -6842,7 +7120,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="17" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -6852,7 +7130,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="18" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -6862,7 +7140,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="17" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -6872,7 +7150,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -6882,16 +7160,16 @@
     <row r="18" ht="27" customHeight="1" spans="1:6">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>9</v>
@@ -6907,22 +7185,22 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -6932,7 +7210,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="16" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" ht="28" customHeight="1" spans="1:6">
@@ -6946,19 +7224,19 @@
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="13" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6967,7 +7245,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="17" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -6977,7 +7255,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F25" s="12"/>
     </row>
@@ -6992,16 +7270,16 @@
     <row r="27" ht="29" customHeight="1" spans="1:6">
       <c r="A27" s="19"/>
       <c r="B27" s="24" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>9</v>
@@ -7017,22 +7295,22 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7042,7 +7320,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="17" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7052,7 +7330,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="17" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7062,7 +7340,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="17" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:6">
@@ -7072,7 +7350,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:6">
@@ -7086,19 +7364,19 @@
     <row r="35" spans="1:6">
       <c r="A35" s="8"/>
       <c r="B35" s="25" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7107,7 +7385,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="17" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F36" s="10"/>
     </row>
@@ -7117,7 +7395,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="17" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F37" s="10"/>
     </row>
@@ -7127,7 +7405,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="17" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F38" s="10"/>
     </row>
@@ -7137,7 +7415,7 @@
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F39" s="12"/>
     </row>
@@ -7152,16 +7430,16 @@
     <row r="41" ht="25" customHeight="1" spans="1:6">
       <c r="A41" s="19"/>
       <c r="B41" s="24" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>9</v>
@@ -7177,22 +7455,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="28" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>10</v>
@@ -7205,7 +7483,7 @@
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="17" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G44" s="30"/>
     </row>
@@ -7216,7 +7494,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -7231,16 +7509,16 @@
     <row r="47" spans="1:7">
       <c r="A47" s="8"/>
       <c r="B47" s="25" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>9</v>
@@ -7255,7 +7533,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="30"/>
@@ -7266,7 +7544,7 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="31"/>
@@ -7282,16 +7560,16 @@
     <row r="51" ht="22" customHeight="1" spans="1:7">
       <c r="A51" s="19"/>
       <c r="B51" s="24" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>9</v>
@@ -7310,22 +7588,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="28" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>10</v>
@@ -7338,7 +7616,7 @@
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="17" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G54" s="35"/>
     </row>
@@ -7349,7 +7627,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="17" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G55" s="35"/>
     </row>
@@ -7360,7 +7638,7 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="17" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G56" s="35"/>
     </row>
@@ -7371,7 +7649,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="17" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="G57" s="35"/>
     </row>
@@ -7382,7 +7660,7 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="17" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G58" s="35"/>
     </row>
@@ -7393,7 +7671,7 @@
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="17" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G59" s="35"/>
     </row>
@@ -7404,7 +7682,7 @@
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="17" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G60" s="35"/>
     </row>
@@ -7415,7 +7693,7 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="16" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G61" s="36"/>
     </row>
@@ -7430,16 +7708,16 @@
     <row r="63" spans="1:7">
       <c r="A63" s="8"/>
       <c r="B63" s="25" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>9</v>
@@ -7454,7 +7732,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="17" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="35"/>
@@ -7465,7 +7743,7 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="17" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="35"/>
@@ -7476,7 +7754,7 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="17" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="35"/>
@@ -7487,7 +7765,7 @@
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="17" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="35"/>
@@ -7498,7 +7776,7 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="17" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="35"/>
@@ -7509,7 +7787,7 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="17" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="35"/>
@@ -7520,7 +7798,7 @@
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="16" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="36"/>
@@ -7536,16 +7814,16 @@
     <row r="72" ht="21" customHeight="1" spans="1:7">
       <c r="A72" s="19"/>
       <c r="B72" s="24" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>9</v>
@@ -7557,22 +7835,22 @@
     <row r="73" ht="40" customHeight="1"/>
     <row r="74" spans="1:6">
       <c r="A74" s="28" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7582,7 +7860,7 @@
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="17" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7592,7 +7870,7 @@
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="17" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7602,7 +7880,7 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="17" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7612,7 +7890,7 @@
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="17" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7622,7 +7900,7 @@
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="17" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -7632,7 +7910,7 @@
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="17" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7642,7 +7920,7 @@
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="17" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7652,7 +7930,7 @@
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:6">
@@ -7662,7 +7940,7 @@
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="16" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
@@ -7676,19 +7954,19 @@
     <row r="85" spans="1:6">
       <c r="A85" s="8"/>
       <c r="B85" s="6" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D85" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -7697,7 +7975,7 @@
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="17" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F86" s="10"/>
     </row>
@@ -7707,7 +7985,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="17" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F87" s="10"/>
     </row>
@@ -7717,7 +7995,7 @@
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="17" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -7727,7 +8005,7 @@
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="17" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F89" s="10"/>
     </row>
@@ -7737,7 +8015,7 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="17" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F90" s="10"/>
     </row>
@@ -7747,7 +8025,7 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="17" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F91" s="10"/>
     </row>
@@ -7757,7 +8035,7 @@
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F92" s="10"/>
     </row>
@@ -7767,7 +8045,7 @@
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="17" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F93" s="10"/>
     </row>
@@ -7777,7 +8055,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="17" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F94" s="10"/>
     </row>
@@ -7787,7 +8065,7 @@
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F95" s="12"/>
     </row>
@@ -7802,16 +8080,16 @@
     <row r="97" ht="18" customHeight="1" spans="1:6">
       <c r="A97" s="19"/>
       <c r="B97" s="20" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F97" s="22" t="s">
         <v>9</v>
@@ -7827,22 +8105,22 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="28" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7852,7 +8130,7 @@
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="17" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7862,7 +8140,7 @@
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="17" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7872,7 +8150,7 @@
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="17" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7882,7 +8160,7 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="17" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7892,7 +8170,7 @@
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="17" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:6">
@@ -7902,7 +8180,7 @@
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="16" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:6">
@@ -7916,16 +8194,16 @@
     <row r="107" spans="1:6">
       <c r="A107" s="8"/>
       <c r="B107" s="6" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>9</v>
@@ -7937,7 +8215,7 @@
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="17" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F108" s="10"/>
     </row>
@@ -7947,7 +8225,7 @@
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="17" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F109" s="10"/>
     </row>
@@ -7957,7 +8235,7 @@
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="17" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F110" s="10"/>
     </row>
@@ -7967,7 +8245,7 @@
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="17" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F111" s="10"/>
     </row>
@@ -7977,7 +8255,7 @@
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F112" s="12"/>
     </row>
@@ -7992,16 +8270,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="8"/>
       <c r="B114" s="13" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>9</v>
@@ -8013,7 +8291,7 @@
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="42" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F115" s="12"/>
     </row>
@@ -8028,16 +8306,16 @@
     <row r="117" ht="24" customHeight="1" spans="1:6">
       <c r="A117" s="19"/>
       <c r="B117" s="20" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F117" s="21" t="s">
         <v>9</v>
